--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,347 +498,347 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kumari Equity Fund</t>
+          <t>Prabhu Select Fund</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.6</v>
+        <v>-2.73</v>
       </c>
       <c r="E2" t="n">
-        <v>8200</v>
+        <v>14100</v>
       </c>
       <c r="F2" t="n">
-        <v>77288</v>
+        <v>130208.75</v>
       </c>
       <c r="G2" t="n">
-        <v>9.43</v>
+        <v>9.34</v>
       </c>
       <c r="H2" t="n">
-        <v>9.5</v>
+        <v>9.35</v>
       </c>
       <c r="I2" t="n">
-        <v>9.33</v>
+        <v>9.17</v>
       </c>
       <c r="J2" t="n">
-        <v>9.619999999999999</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NIBL Samriddhi Fund -2</t>
+          <t>Kumari Equity Fund</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.41</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.36</v>
+        <v>-0.11</v>
       </c>
       <c r="E3" t="n">
-        <v>22800</v>
+        <v>8550</v>
       </c>
       <c r="F3" t="n">
-        <v>213325</v>
+        <v>80123</v>
       </c>
       <c r="G3" t="n">
-        <v>9.4</v>
+        <v>9.32</v>
       </c>
       <c r="H3" t="n">
-        <v>9.59</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.32</v>
       </c>
       <c r="J3" t="n">
-        <v>9.539999999999999</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sunrise Bluechip Fund</t>
+          <t>NIC Asia Select Fund 30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.42</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.88</v>
+        <v>-3.79</v>
       </c>
       <c r="E4" t="n">
-        <v>2000</v>
+        <v>20900</v>
       </c>
       <c r="F4" t="n">
-        <v>18993</v>
+        <v>194253</v>
       </c>
       <c r="G4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="H4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="I4" t="n">
-        <v>9.42</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prabhu Select Fund</t>
+          <t>RBB Mutual Fund 1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.529999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.95</v>
+        <v>-4.85</v>
       </c>
       <c r="E5" t="n">
-        <v>14200</v>
+        <v>35911</v>
       </c>
       <c r="F5" t="n">
-        <v>134357</v>
+        <v>338598.81</v>
       </c>
       <c r="G5" t="n">
-        <v>9.529999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H5" t="n">
-        <v>9.529999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="I5" t="n">
-        <v>9.4</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>9.720000000000001</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CITIZENS MUTUAL FUND 2</t>
+          <t>Sunrise Bluechip Fund</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>-2.8</v>
+        <v>9.43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
       </c>
       <c r="E6" t="n">
-        <v>273400</v>
+        <v>6950</v>
       </c>
       <c r="F6" t="n">
-        <v>2699531</v>
+        <v>65617</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>9.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10.01</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>9.720000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NIC Asia Select Fund 30</t>
+          <t>CITIZENS MUTUAL FUND 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.56</v>
+        <v>9.51</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>-2.16</v>
       </c>
       <c r="E7" t="n">
-        <v>15150</v>
+        <v>266455</v>
       </c>
       <c r="F7" t="n">
-        <v>144286.5</v>
+        <v>2530936.24</v>
       </c>
       <c r="G7" t="n">
-        <v>9.789999999999999</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>9.789999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9.449999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>9.6</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laxmi Unnati Kosh</t>
+          <t>Citizens Mutual Fund -1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.93</v>
+        <v>9.52</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>-4.8</v>
       </c>
       <c r="E8" t="n">
-        <v>128300</v>
+        <v>39062</v>
       </c>
       <c r="F8" t="n">
-        <v>1235061</v>
+        <v>375561.22</v>
       </c>
       <c r="G8" t="n">
-        <v>9.6</v>
+        <v>9.81</v>
       </c>
       <c r="H8" t="n">
-        <v>9.859999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="I8" t="n">
-        <v>9.49</v>
+        <v>9.5</v>
       </c>
       <c r="J8" t="n">
-        <v>9.68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sanima Large Cap Fund</t>
+          <t>NIBL Samriddhi Fund -2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>-2.29</v>
+        <v>9.56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.59</v>
       </c>
       <c r="E9" t="n">
-        <v>31175</v>
+        <v>30096</v>
       </c>
       <c r="F9" t="n">
-        <v>300321.5</v>
+        <v>279332.11</v>
       </c>
       <c r="G9" t="n">
-        <v>9.85</v>
+        <v>9.27</v>
       </c>
       <c r="H9" t="n">
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="I9" t="n">
-        <v>9.44</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>10.03</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RBB Mutual Fund 1</t>
+          <t>Laxmi Unnati Kosh</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.890000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.49</v>
+        <v>-0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>13200</v>
+        <v>21125</v>
       </c>
       <c r="F10" t="n">
-        <v>129838</v>
+        <v>204792.25</v>
       </c>
       <c r="G10" t="n">
-        <v>9.85</v>
+        <v>9.77</v>
       </c>
       <c r="H10" t="n">
-        <v>9.890000000000001</v>
+        <v>9.92</v>
       </c>
       <c r="I10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="J10" t="n">
-        <v>10.04</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Citizens Mutual Fund -1</t>
+          <t>Sanima Large Cap Fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10360</v>
+        <v>4311</v>
       </c>
       <c r="F11" t="n">
-        <v>103647.5</v>
+        <v>41720.3</v>
       </c>
       <c r="G11" t="n">
-        <v>10.19</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>10.19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -846,96 +846,96 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9800</v>
+      </c>
+      <c r="F12" t="n">
+        <v>97102</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="J12" t="n">
         <v>10</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1159800</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11583106</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nabil Equity Fund</t>
+          <t>NABIL BALANCED FUND-2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.35</v>
+        <v>10.1</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-1.52</v>
+        <v>-3.16</v>
       </c>
       <c r="E13" t="n">
-        <v>155972</v>
+        <v>92250</v>
       </c>
       <c r="F13" t="n">
-        <v>1627822.98</v>
+        <v>940227.03</v>
       </c>
       <c r="G13" t="n">
-        <v>10.72</v>
+        <v>10.43</v>
       </c>
       <c r="H13" t="n">
-        <v>10.72</v>
+        <v>10.43</v>
       </c>
       <c r="I13" t="n">
-        <v>10.31</v>
+        <v>10.1</v>
       </c>
       <c r="J13" t="n">
-        <v>10.51</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Siddhartha Equity Fund</t>
+          <t>NIBL Pragati Fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.19</v>
+        <v>10.24</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>-2.38</v>
       </c>
       <c r="E14" t="n">
-        <v>1190</v>
+        <v>101021</v>
       </c>
       <c r="F14" t="n">
-        <v>12405.5</v>
+        <v>1027607.04</v>
       </c>
       <c r="G14" t="n">
-        <v>10.45</v>
+        <v>10.29</v>
       </c>
       <c r="H14" t="n">
-        <v>10.45</v>
+        <v>10.29</v>
       </c>
       <c r="I14" t="n">
-        <v>10.42</v>
+        <v>10.08</v>
       </c>
       <c r="J14" t="n">
-        <v>10.4</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="15">
@@ -944,139 +944,139 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NABIL BALANCED FUND-2</t>
+          <t>NIC Asia Balanced Fund</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.43</v>
+        <v>10.25</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-2.07</v>
+        <v>-1.91</v>
       </c>
       <c r="E15" t="n">
-        <v>25900</v>
+        <v>23583</v>
       </c>
       <c r="F15" t="n">
-        <v>270747.9</v>
+        <v>242162.35</v>
       </c>
       <c r="G15" t="n">
-        <v>10.5</v>
+        <v>10.45</v>
       </c>
       <c r="H15" t="n">
-        <v>10.64</v>
+        <v>10.45</v>
       </c>
       <c r="I15" t="n">
-        <v>10.43</v>
+        <v>10.25</v>
       </c>
       <c r="J15" t="n">
-        <v>10.65</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Siddhartha Investment Growth Scheme - 2</t>
+          <t>Nabil Equity Fund</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.45</v>
+        <v>10.3</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.85</v>
+        <v>-0.48</v>
       </c>
       <c r="E16" t="n">
-        <v>60800</v>
+        <v>178737</v>
       </c>
       <c r="F16" t="n">
-        <v>638552</v>
+        <v>1849210.2</v>
       </c>
       <c r="G16" t="n">
-        <v>10.7</v>
+        <v>10.35</v>
       </c>
       <c r="H16" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="n">
-        <v>10.43</v>
+        <v>10.3</v>
       </c>
       <c r="J16" t="n">
-        <v>10.54</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NIC Asia Balanced Fund</t>
+          <t>Siddhartha Investment Growth Scheme - 2</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45800</v>
+      </c>
+      <c r="F17" t="n">
+        <v>471826</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="J17" t="n">
         <v>10.45</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="E17" t="n">
-        <v>500</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5233</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NIBL Pragati Fund</t>
+          <t>Siddhartha Equity Fund</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.49</v>
+        <v>10.35</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-2.69</v>
+        <v>-0.67</v>
       </c>
       <c r="E18" t="n">
-        <v>84250</v>
+        <v>26700</v>
       </c>
       <c r="F18" t="n">
-        <v>887964.5</v>
+        <v>273923</v>
       </c>
       <c r="G18" t="n">
-        <v>10.57</v>
+        <v>10.25</v>
       </c>
       <c r="H18" t="n">
-        <v>10.7</v>
+        <v>10.35</v>
       </c>
       <c r="I18" t="n">
-        <v>10.4</v>
+        <v>10.24</v>
       </c>
       <c r="J18" t="n">
-        <v>10.78</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1084,33 +1084,33 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>33327.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J19" t="n">
         <v>10.75</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>46600</v>
-      </c>
-      <c r="F19" t="n">
-        <v>494823</v>
-      </c>
-      <c r="G19" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="H19" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1118,33 +1118,33 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12825</v>
+      </c>
+      <c r="F20" t="n">
+        <v>138377.56</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="J20" t="n">
         <v>10.85</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>-1.36</v>
-      </c>
-      <c r="E20" t="n">
-        <v>25100</v>
-      </c>
-      <c r="F20" t="n">
-        <v>273520</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1152,33 +1152,33 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>109589</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="J21" t="n">
         <v>11.05</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>-1.34</v>
-      </c>
-      <c r="E21" t="n">
-        <v>26800</v>
-      </c>
-      <c r="F21" t="n">
-        <v>295589</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1186,33 +1186,33 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18300</v>
+      </c>
+      <c r="F22" t="n">
+        <v>203892</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="J22" t="n">
         <v>11.09</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>-3.82</v>
-      </c>
-      <c r="E22" t="n">
-        <v>206900</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2294538</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="H22" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>11</v>
-      </c>
-      <c r="J22" t="n">
-        <v>11.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1220,33 +1220,33 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17200</v>
+      </c>
+      <c r="F23" t="n">
+        <v>195752</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J23" t="n">
         <v>11.51</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="E23" t="n">
-        <v>77065</v>
-      </c>
-      <c r="F23" t="n">
-        <v>890148.8100000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1254,33 +1254,33 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="E24" t="n">
+        <v>32035</v>
+      </c>
+      <c r="F24" t="n">
+        <v>400174.83</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="J24" t="n">
         <v>12.74</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E24" t="n">
-        <v>146763</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1818265.17</v>
-      </c>
-      <c r="G24" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="H24" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>12.57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1288,1461 +1288,1461 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1033161</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20756593.76</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="J25" t="n">
         <v>20.49</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1272594</v>
-      </c>
-      <c r="F25" t="n">
-        <v>26108020.76</v>
-      </c>
-      <c r="G25" t="n">
-        <v>21</v>
-      </c>
-      <c r="H25" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20</v>
-      </c>
-      <c r="J25" t="n">
-        <v>20.92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Soaltee Hotel Limited</t>
+          <t>Nepal Credit &amp; Commercial Bank Ltd. Promoter Share</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222.8</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.81</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>24893</v>
+        <v>760565</v>
       </c>
       <c r="F26" t="n">
-        <v>5617486.6</v>
+        <v>100228365</v>
       </c>
       <c r="G26" t="n">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="H26" t="n">
-        <v>232.7</v>
+        <v>121</v>
       </c>
       <c r="I26" t="n">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="J26" t="n">
-        <v>226.9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Century Commercial Bank Ltd.</t>
+          <t>Prime Commercial Bank Promoter Share</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>57577</v>
+        <v>7220</v>
       </c>
       <c r="F27" t="n">
-        <v>13441969.9</v>
+        <v>1357360</v>
       </c>
       <c r="G27" t="n">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="H27" t="n">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="I27" t="n">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="J27" t="n">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Civil Bank Ltd</t>
+          <t>Prabhu Bank Limited Promoter Share</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-2.06</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>56148</v>
+        <v>13019</v>
       </c>
       <c r="F28" t="n">
-        <v>13369491.2</v>
+        <v>2551724</v>
       </c>
       <c r="G28" t="n">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="H28" t="n">
-        <v>242.9</v>
+        <v>196</v>
       </c>
       <c r="I28" t="n">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="J28" t="n">
-        <v>243</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kumari Bank Limited</t>
+          <t>Soaltee Hotel Limited</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-2.08</v>
+        <v>-2.6</v>
       </c>
       <c r="E29" t="n">
-        <v>97721</v>
+        <v>31952</v>
       </c>
       <c r="F29" t="n">
-        <v>27552901.7</v>
+        <v>6916634.5</v>
       </c>
       <c r="G29" t="n">
-        <v>293.7</v>
+        <v>219</v>
       </c>
       <c r="H29" t="n">
-        <v>293.7</v>
+        <v>221.5</v>
       </c>
       <c r="I29" t="n">
-        <v>280</v>
+        <v>213.1</v>
       </c>
       <c r="J29" t="n">
-        <v>288</v>
+        <v>222.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dibyashwori Hydropower Ltd.</t>
+          <t>Century Commercial Bank Ltd.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>287</v>
+        <v>228.9</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-2.38</v>
+        <v>-2.6</v>
       </c>
       <c r="E30" t="n">
-        <v>8852</v>
+        <v>56005</v>
       </c>
       <c r="F30" t="n">
-        <v>2546651.3</v>
+        <v>12736811.2</v>
       </c>
       <c r="G30" t="n">
-        <v>288.2</v>
+        <v>230.3</v>
       </c>
       <c r="H30" t="n">
-        <v>293.7</v>
+        <v>232</v>
       </c>
       <c r="I30" t="n">
-        <v>282</v>
+        <v>224.1</v>
       </c>
       <c r="J30" t="n">
-        <v>294</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Himal Dolakha Hydropower Company Limited</t>
+          <t>Civil Bank Ltd</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>289.9</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-4.64</v>
+        <v>-2.94</v>
       </c>
       <c r="E31" t="n">
-        <v>32234</v>
+        <v>83150</v>
       </c>
       <c r="F31" t="n">
-        <v>9372362.199999999</v>
+        <v>19207824.2</v>
       </c>
       <c r="G31" t="n">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="H31" t="n">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="I31" t="n">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="J31" t="n">
-        <v>304</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Panchakanya Mai Hydropower Ltd</t>
+          <t>NMB Bank Limited Promoter Share</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>289.9</v>
+        <v>245</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-2.65</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7031</v>
+        <v>40064</v>
       </c>
       <c r="F32" t="n">
-        <v>1987280.8</v>
+        <v>9815680</v>
       </c>
       <c r="G32" t="n">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="H32" t="n">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="I32" t="n">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="J32" t="n">
-        <v>297.8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ankhu Khola Jalvidhyut Company Ltd</t>
+          <t>Panchakanya Mai Hydropower Ltd</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-4.64</v>
+        <v>-7.21</v>
       </c>
       <c r="E33" t="n">
-        <v>5414</v>
+        <v>7288</v>
       </c>
       <c r="F33" t="n">
-        <v>1589548</v>
+        <v>1936029.3</v>
       </c>
       <c r="G33" t="n">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H33" t="n">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="I33" t="n">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J33" t="n">
-        <v>304.1</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nepal Credit And Commercial Bank Limited</t>
+          <t>Ankhu Khola Jalvidhyut Company Ltd</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>295.9</v>
+        <v>272</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.69</v>
+        <v>-6.21</v>
       </c>
       <c r="E34" t="n">
-        <v>46504</v>
+        <v>4334</v>
       </c>
       <c r="F34" t="n">
-        <v>13735590.6</v>
+        <v>1210992</v>
       </c>
       <c r="G34" t="n">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H34" t="n">
-        <v>299.1</v>
+        <v>290</v>
       </c>
       <c r="I34" t="n">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="J34" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Joshi Hydropower Development Company Ltd</t>
+          <t>Himal Dolakha Hydropower Company Limited</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-2.92</v>
+        <v>-5.83</v>
       </c>
       <c r="E35" t="n">
-        <v>2995</v>
+        <v>89210</v>
       </c>
       <c r="F35" t="n">
-        <v>891719</v>
+        <v>24084026</v>
       </c>
       <c r="G35" t="n">
-        <v>301</v>
+        <v>284.2</v>
       </c>
       <c r="H35" t="n">
-        <v>301</v>
+        <v>284.5</v>
       </c>
       <c r="I35" t="n">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="J35" t="n">
-        <v>304.9</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hydorelectricity Investment and Development Company Ltd</t>
+          <t>Dibyashwori Hydropower Ltd.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-1.96</v>
+        <v>-4.18</v>
       </c>
       <c r="E36" t="n">
-        <v>36299</v>
+        <v>12710</v>
       </c>
       <c r="F36" t="n">
-        <v>10948609.9</v>
+        <v>3503957.7</v>
       </c>
       <c r="G36" t="n">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="H36" t="n">
-        <v>308</v>
+        <v>291.9</v>
       </c>
       <c r="I36" t="n">
-        <v>298.5</v>
+        <v>270</v>
       </c>
       <c r="J36" t="n">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sunrise Bank Limited</t>
+          <t>Kumari Bank Limited</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-2.56</v>
+        <v>-2.48</v>
       </c>
       <c r="E37" t="n">
-        <v>47461</v>
+        <v>114269</v>
       </c>
       <c r="F37" t="n">
-        <v>14435290.8</v>
+        <v>31330812.7</v>
       </c>
       <c r="G37" t="n">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="H37" t="n">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="I37" t="n">
-        <v>301</v>
+        <v>269.5</v>
       </c>
       <c r="J37" t="n">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Union Hydropower Limited</t>
+          <t>Nepal Credit And Commercial Bank Limited</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-6.17</v>
+        <v>-5.37</v>
       </c>
       <c r="E38" t="n">
-        <v>13351</v>
+        <v>54826</v>
       </c>
       <c r="F38" t="n">
-        <v>4119409</v>
+        <v>15529600</v>
       </c>
       <c r="G38" t="n">
-        <v>323.8</v>
+        <v>291</v>
       </c>
       <c r="H38" t="n">
-        <v>323.8</v>
+        <v>292</v>
       </c>
       <c r="I38" t="n">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="J38" t="n">
-        <v>324</v>
+        <v>295.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Khanikhola Hydropower Co. Ltd.</t>
+          <t>Joshi Hydropower Development Company Ltd</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-3.17</v>
+        <v>-3.38</v>
       </c>
       <c r="E39" t="n">
-        <v>13521</v>
+        <v>5034</v>
       </c>
       <c r="F39" t="n">
-        <v>4160783.8</v>
+        <v>1410298.6</v>
       </c>
       <c r="G39" t="n">
-        <v>309</v>
+        <v>290.1</v>
       </c>
       <c r="H39" t="n">
-        <v>315</v>
+        <v>290.1</v>
       </c>
       <c r="I39" t="n">
-        <v>304</v>
+        <v>273.8</v>
       </c>
       <c r="J39" t="n">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shiva Shree Hydropower Ltd</t>
+          <t>Khanikhola Hydropower Co. Ltd.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>-5.57</v>
       </c>
       <c r="E40" t="n">
-        <v>19622</v>
+        <v>13288</v>
       </c>
       <c r="F40" t="n">
-        <v>6113768</v>
+        <v>3824409.6</v>
       </c>
       <c r="G40" t="n">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="H40" t="n">
-        <v>321.1</v>
+        <v>305</v>
       </c>
       <c r="I40" t="n">
-        <v>305.9</v>
+        <v>276.7</v>
       </c>
       <c r="J40" t="n">
-        <v>325.1</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Citizen Bank International Limited</t>
+          <t>Union Hydropower Limited</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-3.14</v>
+        <v>-4.93</v>
       </c>
       <c r="E41" t="n">
-        <v>100504</v>
+        <v>20809</v>
       </c>
       <c r="F41" t="n">
-        <v>31158909.2</v>
+        <v>5967032</v>
       </c>
       <c r="G41" t="n">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H41" t="n">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="I41" t="n">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="J41" t="n">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ghalemdi Hydro Limited</t>
+          <t>Hydorelectricity Investment and Development Company Ltd</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>310.5</v>
+        <v>292</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-10</v>
+        <v>-2.67</v>
       </c>
       <c r="E42" t="n">
-        <v>9813</v>
+        <v>57485</v>
       </c>
       <c r="F42" t="n">
-        <v>3080454.9</v>
+        <v>16645630.9</v>
       </c>
       <c r="G42" t="n">
-        <v>351.9</v>
+        <v>300</v>
       </c>
       <c r="H42" t="n">
-        <v>351.9</v>
+        <v>300</v>
       </c>
       <c r="I42" t="n">
-        <v>310.5</v>
+        <v>285</v>
       </c>
       <c r="J42" t="n">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Laxmi Bank Limited</t>
+          <t>Ghalemdi Hydro Limited</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-3.64</v>
+        <v>-5.31</v>
       </c>
       <c r="E43" t="n">
-        <v>36881</v>
+        <v>5071</v>
       </c>
       <c r="F43" t="n">
-        <v>11785327.2</v>
+        <v>1503512.5</v>
       </c>
       <c r="G43" t="n">
-        <v>333</v>
+        <v>304.3</v>
       </c>
       <c r="H43" t="n">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="I43" t="n">
-        <v>316</v>
+        <v>290.1</v>
       </c>
       <c r="J43" t="n">
-        <v>330</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>UNIVERSAL POWER COMPANY LTD</t>
+          <t>Shiva Shree Hydropower Ltd</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-7.26</v>
+        <v>-3.91</v>
       </c>
       <c r="E44" t="n">
-        <v>67101</v>
+        <v>52015</v>
       </c>
       <c r="F44" t="n">
-        <v>21706973.4</v>
+        <v>15024894.7</v>
       </c>
       <c r="G44" t="n">
-        <v>336.1</v>
+        <v>300.9</v>
       </c>
       <c r="H44" t="n">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="I44" t="n">
-        <v>310.5</v>
+        <v>280</v>
       </c>
       <c r="J44" t="n">
-        <v>342.9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mega Bank Nepal Ltd.</t>
+          <t>Citizen Bank International Limited</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-2.94</v>
+        <v>-4.22</v>
       </c>
       <c r="E45" t="n">
-        <v>231020</v>
+        <v>107813</v>
       </c>
       <c r="F45" t="n">
-        <v>73346843.7</v>
+        <v>31901136.3</v>
       </c>
       <c r="G45" t="n">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="H45" t="n">
-        <v>329.6</v>
+        <v>305</v>
       </c>
       <c r="I45" t="n">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J45" t="n">
-        <v>329.7</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Liberty Energy Company Limited</t>
+          <t>Sunrise Bank Limited</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-4.18</v>
+        <v>-2.63</v>
       </c>
       <c r="E46" t="n">
-        <v>16899</v>
+        <v>58886</v>
       </c>
       <c r="F46" t="n">
-        <v>5453138</v>
+        <v>17382547.4</v>
       </c>
       <c r="G46" t="n">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="H46" t="n">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="I46" t="n">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="J46" t="n">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bank of Kathmandu Ltd.</t>
+          <t>Liberty Energy Company Limited</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-2.65</v>
+        <v>-7.48</v>
       </c>
       <c r="E47" t="n">
-        <v>44294</v>
+        <v>21876</v>
       </c>
       <c r="F47" t="n">
-        <v>14760430.3</v>
+        <v>6583896.9</v>
       </c>
       <c r="G47" t="n">
-        <v>335.5</v>
+        <v>321</v>
       </c>
       <c r="H47" t="n">
-        <v>340</v>
+        <v>321.6</v>
       </c>
       <c r="I47" t="n">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="J47" t="n">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RASUWAGADHI HYDROPOWER COMPANY LIMITED</t>
+          <t>UNIVERSAL POWER COMPANY LTD</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-2.02</v>
+        <v>-6.29</v>
       </c>
       <c r="E48" t="n">
-        <v>32090</v>
+        <v>140411</v>
       </c>
       <c r="F48" t="n">
-        <v>10828822</v>
+        <v>41797372.2</v>
       </c>
       <c r="G48" t="n">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="H48" t="n">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="I48" t="n">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="J48" t="n">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SANJEN JALAVIDHYUT COMPANY LIMITED</t>
+          <t>Mega Bank Nepal Ltd.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>344</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.58</v>
+        <v>301.6</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>-5.75</v>
       </c>
       <c r="E49" t="n">
-        <v>15711</v>
+        <v>211623</v>
       </c>
       <c r="F49" t="n">
-        <v>5368022.3</v>
+        <v>64832580.4</v>
       </c>
       <c r="G49" t="n">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="H49" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="I49" t="n">
-        <v>336</v>
+        <v>300.2</v>
       </c>
       <c r="J49" t="n">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Saptakoshi Development Bank Ltd</t>
+          <t>Laxmi Bank Limited</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-4.43</v>
+        <v>-3.77</v>
       </c>
       <c r="E50" t="n">
-        <v>12178</v>
+        <v>64007</v>
       </c>
       <c r="F50" t="n">
-        <v>4233115.4</v>
+        <v>19692370</v>
       </c>
       <c r="G50" t="n">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="H50" t="n">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="I50" t="n">
-        <v>341.1</v>
+        <v>301.9</v>
       </c>
       <c r="J50" t="n">
-        <v>361</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nepal Infrastructure Bank Limited</t>
+          <t>Bank of Kathmandu Ltd.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-3.33</v>
+        <v>-3.94</v>
       </c>
       <c r="E51" t="n">
-        <v>95320</v>
+        <v>63948</v>
       </c>
       <c r="F51" t="n">
-        <v>33254022.5</v>
+        <v>20344404.7</v>
       </c>
       <c r="G51" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="H51" t="n">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="I51" t="n">
-        <v>344</v>
+        <v>314.1</v>
       </c>
       <c r="J51" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nepal SBI Bank Limited</t>
+          <t>RASUWAGADHI HYDROPOWER COMPANY LIMITED</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>350</v>
+        <v>328.5</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-1.96</v>
+        <v>-3.38</v>
       </c>
       <c r="E52" t="n">
-        <v>11264</v>
+        <v>46539</v>
       </c>
       <c r="F52" t="n">
-        <v>3957470.4</v>
+        <v>15344692.9</v>
       </c>
       <c r="G52" t="n">
-        <v>352.5</v>
+        <v>335</v>
       </c>
       <c r="H52" t="n">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="I52" t="n">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="J52" t="n">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mountain Hydro Nepal Limited</t>
+          <t>Saptakoshi Development Bank Ltd</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>350</v>
+        <v>329.2</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-5.91</v>
+        <v>-4.58</v>
       </c>
       <c r="E53" t="n">
-        <v>10563</v>
+        <v>21582</v>
       </c>
       <c r="F53" t="n">
-        <v>3769949.2</v>
+        <v>7015323.5</v>
       </c>
       <c r="G53" t="n">
-        <v>365</v>
+        <v>338.1</v>
       </c>
       <c r="H53" t="n">
-        <v>373</v>
+        <v>338.1</v>
       </c>
       <c r="I53" t="n">
-        <v>346.2</v>
+        <v>320</v>
       </c>
       <c r="J53" t="n">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Taragaon Regency Hotel Limited</t>
+          <t>SANJEN JALAVIDHYUT COMPANY LIMITED</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>355.1</v>
+        <v>330</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-3.48</v>
+        <v>-4.07</v>
       </c>
       <c r="E54" t="n">
-        <v>4205</v>
+        <v>23585</v>
       </c>
       <c r="F54" t="n">
-        <v>1513728</v>
+        <v>7809475.9</v>
       </c>
       <c r="G54" t="n">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="H54" t="n">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="I54" t="n">
-        <v>355.1</v>
+        <v>326</v>
       </c>
       <c r="J54" t="n">
-        <v>367.9</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Green Development Bank Ltd.</t>
+          <t>Mountain Hydro Nepal Limited</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-3.99</v>
+        <v>-5.71</v>
       </c>
       <c r="E55" t="n">
-        <v>11519</v>
+        <v>9493</v>
       </c>
       <c r="F55" t="n">
-        <v>4147202</v>
+        <v>3121412.4</v>
       </c>
       <c r="G55" t="n">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="H55" t="n">
-        <v>391.1</v>
+        <v>355</v>
       </c>
       <c r="I55" t="n">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="J55" t="n">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sanima Mai Hydropower Ltd.</t>
+          <t>National Hydro Power Company Limited</t>
         </is>
       </c>
       <c r="C56" t="n">
+        <v>334</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="E56" t="n">
+        <v>268246</v>
+      </c>
+      <c r="F56" t="n">
+        <v>92734420.40000001</v>
+      </c>
+      <c r="G56" t="n">
         <v>369</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>-3.66</v>
-      </c>
-      <c r="E56" t="n">
-        <v>61075</v>
-      </c>
-      <c r="F56" t="n">
-        <v>22726553.7</v>
-      </c>
-      <c r="G56" t="n">
-        <v>380</v>
-      </c>
       <c r="H56" t="n">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="I56" t="n">
-        <v>368</v>
+        <v>332.1</v>
       </c>
       <c r="J56" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>National Hydro Power Company Limited</t>
+          <t>Nepal Infrastructure Bank Limited</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-4.9</v>
+        <v>-3.74</v>
       </c>
       <c r="E57" t="n">
-        <v>123114</v>
+        <v>129619</v>
       </c>
       <c r="F57" t="n">
-        <v>45832705.7</v>
+        <v>43663588.5</v>
       </c>
       <c r="G57" t="n">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="H57" t="n">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="I57" t="n">
-        <v>368</v>
+        <v>332.5</v>
       </c>
       <c r="J57" t="n">
-        <v>388</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Machhapuchhre Bank Limited</t>
+          <t>Taragaon Regency Hotel Limited</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-3.63</v>
+        <v>-5.38</v>
       </c>
       <c r="E58" t="n">
-        <v>124485</v>
+        <v>11614</v>
       </c>
       <c r="F58" t="n">
-        <v>46742860.4</v>
+        <v>3944202</v>
       </c>
       <c r="G58" t="n">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="H58" t="n">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="I58" t="n">
-        <v>370.5</v>
+        <v>330</v>
       </c>
       <c r="J58" t="n">
-        <v>386</v>
+        <v>355.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Everest Insurance Co. Ltd. Promoter Share</t>
+          <t>Nepal SBI Bank Limited</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.53</v>
+        <v>-2.86</v>
       </c>
       <c r="E59" t="n">
-        <v>17893</v>
+        <v>34314</v>
       </c>
       <c r="F59" t="n">
-        <v>6702991.4</v>
+        <v>11685215.1</v>
       </c>
       <c r="G59" t="n">
-        <v>386.5</v>
+        <v>350</v>
       </c>
       <c r="H59" t="n">
-        <v>394.2</v>
+        <v>350</v>
       </c>
       <c r="I59" t="n">
-        <v>363.8</v>
+        <v>331.3</v>
       </c>
       <c r="J59" t="n">
-        <v>379</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ProgressiveFinance Limited</t>
+          <t>Arun Valley Hydropower Development Co. Ltd.</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>378</v>
+        <v>354.1</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-5.97</v>
+        <v>-8.710000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>17090</v>
+        <v>238259</v>
       </c>
       <c r="F60" t="n">
-        <v>6525092</v>
+        <v>85988049.3</v>
       </c>
       <c r="G60" t="n">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H60" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I60" t="n">
-        <v>375</v>
+        <v>349.2</v>
       </c>
       <c r="J60" t="n">
-        <v>402</v>
+        <v>387.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Shangrila Development Bank Ltd.</t>
+          <t>Sanima Mai Hydropower Ltd.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-4.04</v>
+        <v>-3.52</v>
       </c>
       <c r="E61" t="n">
-        <v>70722</v>
+        <v>81291</v>
       </c>
       <c r="F61" t="n">
-        <v>26922911.6</v>
+        <v>28982631.3</v>
       </c>
       <c r="G61" t="n">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="H61" t="n">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="I61" t="n">
-        <v>375.4</v>
+        <v>348.9</v>
       </c>
       <c r="J61" t="n">
-        <v>396</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Barun Hydropower Co. Ltd.</t>
+          <t>Panchthar Power Compant Limited</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>384</v>
+        <v>357.7</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-7.25</v>
+        <v>-7.33</v>
       </c>
       <c r="E62" t="n">
-        <v>14966</v>
+        <v>11222</v>
       </c>
       <c r="F62" t="n">
-        <v>5813907</v>
+        <v>4068765</v>
       </c>
       <c r="G62" t="n">
-        <v>410</v>
+        <v>373.4</v>
       </c>
       <c r="H62" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="I62" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="J62" t="n">
-        <v>414</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Panchthar Power Compant Limited</t>
+          <t>Shangrila Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>386</v>
+        <v>358.8</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-5.09</v>
+        <v>-5.58</v>
       </c>
       <c r="E63" t="n">
-        <v>3480</v>
+        <v>77849</v>
       </c>
       <c r="F63" t="n">
-        <v>1361608.1</v>
+        <v>28269658</v>
       </c>
       <c r="G63" t="n">
-        <v>398.6</v>
+        <v>380</v>
       </c>
       <c r="H63" t="n">
-        <v>403.9</v>
+        <v>380</v>
       </c>
       <c r="I63" t="n">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="J63" t="n">
-        <v>406.7</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Arun Valley Hydropower Development Co. Ltd.</t>
+          <t>ProgressiveFinance Limited</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>387.9</v>
+        <v>359</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-3.75</v>
+        <v>-5.03</v>
       </c>
       <c r="E64" t="n">
-        <v>131090</v>
+        <v>33405</v>
       </c>
       <c r="F64" t="n">
-        <v>50987101.6</v>
+        <v>11745588.2</v>
       </c>
       <c r="G64" t="n">
-        <v>400</v>
+        <v>370.5</v>
       </c>
       <c r="H64" t="n">
-        <v>403</v>
+        <v>370.5</v>
       </c>
       <c r="I64" t="n">
-        <v>381.6</v>
+        <v>343</v>
       </c>
       <c r="J64" t="n">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Synergy Power Development Ltd.</t>
+          <t>Green Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-5.37</v>
+        <v>-0.28</v>
       </c>
       <c r="E65" t="n">
-        <v>22086</v>
+        <v>10192</v>
       </c>
       <c r="F65" t="n">
-        <v>8687212.199999999</v>
+        <v>3521223</v>
       </c>
       <c r="G65" t="n">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="H65" t="n">
-        <v>418</v>
+        <v>369.3</v>
       </c>
       <c r="I65" t="n">
-        <v>385</v>
+        <v>336.4</v>
       </c>
       <c r="J65" t="n">
-        <v>410</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Prabhu Bank Limited</t>
+          <t>Synergy Power Development Ltd.</t>
         </is>
       </c>
       <c r="C66" t="n">
+        <v>363</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>-6.44</v>
+      </c>
+      <c r="E66" t="n">
+        <v>54307</v>
+      </c>
+      <c r="F66" t="n">
+        <v>19860360.2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>383</v>
+      </c>
+      <c r="I66" t="n">
+        <v>352</v>
+      </c>
+      <c r="J66" t="n">
         <v>388</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E66" t="n">
-        <v>55352</v>
-      </c>
-      <c r="F66" t="n">
-        <v>21556691.7</v>
-      </c>
-      <c r="G66" t="n">
-        <v>408</v>
-      </c>
-      <c r="H66" t="n">
-        <v>408</v>
-      </c>
-      <c r="I66" t="n">
-        <v>386</v>
-      </c>
-      <c r="J66" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Global IME Bank Limited</t>
+          <t>Machhapuchhre Bank Limited</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>388.9</v>
+        <v>363.8</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-2.65</v>
+        <v>-2.2</v>
       </c>
       <c r="E67" t="n">
-        <v>86933</v>
+        <v>105022</v>
       </c>
       <c r="F67" t="n">
-        <v>33874922.8</v>
+        <v>37930012.1</v>
       </c>
       <c r="G67" t="n">
-        <v>399.5</v>
+        <v>370</v>
       </c>
       <c r="H67" t="n">
-        <v>399.5</v>
+        <v>370</v>
       </c>
       <c r="I67" t="n">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="J67" t="n">
-        <v>399.5</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2750,407 +2750,407 @@
         </is>
       </c>
       <c r="C68" t="n">
+        <v>364</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>-6.76</v>
+      </c>
+      <c r="E68" t="n">
+        <v>166921</v>
+      </c>
+      <c r="F68" t="n">
+        <v>60885026</v>
+      </c>
+      <c r="G68" t="n">
+        <v>390</v>
+      </c>
+      <c r="H68" t="n">
+        <v>390</v>
+      </c>
+      <c r="I68" t="n">
+        <v>353</v>
+      </c>
+      <c r="J68" t="n">
         <v>390.4</v>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>-7.69</v>
-      </c>
-      <c r="E68" t="n">
-        <v>111508</v>
-      </c>
-      <c r="F68" t="n">
-        <v>44374634.9</v>
-      </c>
-      <c r="G68" t="n">
-        <v>431.3</v>
-      </c>
-      <c r="H68" t="n">
-        <v>431.3</v>
-      </c>
-      <c r="I68" t="n">
-        <v>390</v>
-      </c>
-      <c r="J68" t="n">
-        <v>422.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GreenLife Hydropower Limited</t>
+          <t>Barun Hydropower Co. Ltd.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-5.56</v>
+        <v>-5.21</v>
       </c>
       <c r="E69" t="n">
-        <v>16402</v>
+        <v>28494</v>
       </c>
       <c r="F69" t="n">
-        <v>6589389.4</v>
+        <v>10137072.8</v>
       </c>
       <c r="G69" t="n">
-        <v>405.8</v>
+        <v>388</v>
       </c>
       <c r="H69" t="n">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="I69" t="n">
-        <v>388</v>
+        <v>345.6</v>
       </c>
       <c r="J69" t="n">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Singati Hydro Energy Limited</t>
+          <t>Prabhu Bank Limited</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-2.21</v>
+        <v>-4.38</v>
       </c>
       <c r="E70" t="n">
-        <v>6255</v>
+        <v>90756</v>
       </c>
       <c r="F70" t="n">
-        <v>2422794.2</v>
+        <v>33911134.7</v>
       </c>
       <c r="G70" t="n">
-        <v>400</v>
+        <v>381.3</v>
       </c>
       <c r="H70" t="n">
-        <v>400</v>
+        <v>381.3</v>
       </c>
       <c r="I70" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="J70" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Himalayan Power Partner Ltd.</t>
+          <t>Global IME Bank Limited</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-6.72</v>
+        <v>-4.09</v>
       </c>
       <c r="E71" t="n">
-        <v>62437</v>
+        <v>144512</v>
       </c>
       <c r="F71" t="n">
-        <v>24931819.5</v>
+        <v>53604511.6</v>
       </c>
       <c r="G71" t="n">
-        <v>420.3</v>
+        <v>388</v>
       </c>
       <c r="H71" t="n">
-        <v>428.4</v>
+        <v>388</v>
       </c>
       <c r="I71" t="n">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="J71" t="n">
-        <v>428.8</v>
+        <v>388.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NMB Bank Limited</t>
+          <t>Everest Insurance Co. Ltd. Promoter Share</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>401</v>
+        <v>376.7</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-2.2</v>
+        <v>-0.08</v>
       </c>
       <c r="E72" t="n">
-        <v>53068</v>
+        <v>140</v>
       </c>
       <c r="F72" t="n">
-        <v>21322540.3</v>
+        <v>51285</v>
       </c>
       <c r="G72" t="n">
-        <v>406.1</v>
+        <v>384.5</v>
       </c>
       <c r="H72" t="n">
-        <v>408</v>
+        <v>384.5</v>
       </c>
       <c r="I72" t="n">
-        <v>399</v>
+        <v>362.1</v>
       </c>
       <c r="J72" t="n">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nepal Bangladesh Bank Limited</t>
+          <t>GreenLife Hydropower Limited</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-2.18</v>
+        <v>-3.07</v>
       </c>
       <c r="E73" t="n">
-        <v>49026</v>
+        <v>6878</v>
       </c>
       <c r="F73" t="n">
-        <v>19826576.4</v>
+        <v>2607264.8</v>
       </c>
       <c r="G73" t="n">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="H73" t="n">
-        <v>412</v>
+        <v>414.1</v>
       </c>
       <c r="I73" t="n">
-        <v>402</v>
+        <v>370.6</v>
       </c>
       <c r="J73" t="n">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Himalaya Urja Bikas Company Limited</t>
+          <t>Himalayan Power Partner Ltd.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-2.65</v>
+        <v>-5</v>
       </c>
       <c r="E74" t="n">
-        <v>4025</v>
+        <v>23681</v>
       </c>
       <c r="F74" t="n">
-        <v>1609572.5</v>
+        <v>9103421</v>
       </c>
       <c r="G74" t="n">
-        <v>422.9</v>
+        <v>393</v>
       </c>
       <c r="H74" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I74" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="J74" t="n">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Best Finance Company Ltd.</t>
+          <t>Singati Hydro Energy Limited</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-4.43</v>
+        <v>-4.02</v>
       </c>
       <c r="E75" t="n">
-        <v>17181</v>
+        <v>8130</v>
       </c>
       <c r="F75" t="n">
-        <v>7070475.5</v>
+        <v>3069180.5</v>
       </c>
       <c r="G75" t="n">
-        <v>425</v>
+        <v>390.1</v>
       </c>
       <c r="H75" t="n">
-        <v>425</v>
+        <v>397.9</v>
       </c>
       <c r="I75" t="n">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="J75" t="n">
-        <v>429</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Api Power Company Ltd.</t>
+          <t>Himalaya Urja Bikas Company Limited</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>412.9</v>
+        <v>383</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-3.53</v>
+        <v>-5.2</v>
       </c>
       <c r="E76" t="n">
-        <v>182485</v>
+        <v>7574</v>
       </c>
       <c r="F76" t="n">
-        <v>75256334.09999999</v>
+        <v>2960930.2</v>
       </c>
       <c r="G76" t="n">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="H76" t="n">
-        <v>428</v>
+        <v>420.2</v>
       </c>
       <c r="I76" t="n">
+        <v>375</v>
+      </c>
+      <c r="J76" t="n">
         <v>404</v>
-      </c>
-      <c r="J76" t="n">
-        <v>428</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sindhu Bikash Bank Ltd</t>
+          <t>Mailung Khola Jal Vidhyut Company Limited</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-4.84</v>
+        <v>-8.02</v>
       </c>
       <c r="E77" t="n">
-        <v>8677</v>
+        <v>6370</v>
       </c>
       <c r="F77" t="n">
-        <v>3614892</v>
+        <v>2496810.9</v>
       </c>
       <c r="G77" t="n">
-        <v>426</v>
+        <v>417.5</v>
       </c>
       <c r="H77" t="n">
-        <v>426</v>
+        <v>417.5</v>
       </c>
       <c r="I77" t="n">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="J77" t="n">
-        <v>434</v>
+        <v>417.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Karnali Development Bank Limited</t>
+          <t>Nepal Bangladesh Bank Limited</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>413</v>
+        <v>386.5</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-3.95</v>
+        <v>-4.09</v>
       </c>
       <c r="E78" t="n">
-        <v>12916</v>
+        <v>107086</v>
       </c>
       <c r="F78" t="n">
-        <v>5255699.2</v>
+        <v>41435061</v>
       </c>
       <c r="G78" t="n">
-        <v>421.4</v>
+        <v>402</v>
       </c>
       <c r="H78" t="n">
-        <v>421.4</v>
+        <v>402</v>
       </c>
       <c r="I78" t="n">
-        <v>400</v>
+        <v>382.3</v>
       </c>
       <c r="J78" t="n">
-        <v>430</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mailung Khola Jal Vidhyut Company Limited</t>
+          <t>Best Finance Company Ltd.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>417.5</v>
+        <v>387</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-5.97</v>
+        <v>-5.61</v>
       </c>
       <c r="E79" t="n">
-        <v>4363</v>
+        <v>33663</v>
       </c>
       <c r="F79" t="n">
-        <v>1837982.9</v>
+        <v>13066385.1</v>
       </c>
       <c r="G79" t="n">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="H79" t="n">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="I79" t="n">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="J79" t="n">
-        <v>444</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3158,475 +3158,475 @@
         </is>
       </c>
       <c r="C80" t="n">
+        <v>388</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>-9.77</v>
+      </c>
+      <c r="E80" t="n">
+        <v>17519</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6911878.8</v>
+      </c>
+      <c r="G80" t="n">
+        <v>438.6</v>
+      </c>
+      <c r="H80" t="n">
+        <v>438.6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>387</v>
+      </c>
+      <c r="J80" t="n">
         <v>430</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>-6.93</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3114</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1359637.2</v>
-      </c>
-      <c r="G80" t="n">
-        <v>455</v>
-      </c>
-      <c r="H80" t="n">
-        <v>455</v>
-      </c>
-      <c r="I80" t="n">
-        <v>428</v>
-      </c>
-      <c r="J80" t="n">
-        <v>462</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Samriddhi Finance Company Limited</t>
+          <t>NMB Bank Limited</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-4.02</v>
+        <v>-2.74</v>
       </c>
       <c r="E81" t="n">
-        <v>8740</v>
+        <v>82549</v>
       </c>
       <c r="F81" t="n">
-        <v>3758943.4</v>
+        <v>32260386.4</v>
       </c>
       <c r="G81" t="n">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="H81" t="n">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="I81" t="n">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="J81" t="n">
-        <v>448</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chhyangdi Hydropower Ltd.</t>
+          <t>Karnali Development Bank Limited</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>433.1</v>
+        <v>392</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-6.86</v>
+        <v>-5.08</v>
       </c>
       <c r="E82" t="n">
-        <v>18156</v>
+        <v>14929</v>
       </c>
       <c r="F82" t="n">
-        <v>8029359.9</v>
+        <v>5775015.3</v>
       </c>
       <c r="G82" t="n">
-        <v>456</v>
+        <v>404.8</v>
       </c>
       <c r="H82" t="n">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="I82" t="n">
-        <v>431</v>
+        <v>375.1</v>
       </c>
       <c r="J82" t="n">
-        <v>465</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Multipurpose Finance Company Limited</t>
+          <t>Api Power Company Ltd.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-4.37</v>
+        <v>-4.82</v>
       </c>
       <c r="E83" t="n">
-        <v>12765</v>
+        <v>252759</v>
       </c>
       <c r="F83" t="n">
-        <v>5764608</v>
+        <v>99577885.5</v>
       </c>
       <c r="G83" t="n">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="H83" t="n">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="I83" t="n">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="J83" t="n">
-        <v>460.1</v>
+        <v>412.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Siddhartha Bank Limited</t>
+          <t>Sindhu Bikash Bank Ltd</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-3.27</v>
+        <v>-3.63</v>
       </c>
       <c r="E84" t="n">
-        <v>87817</v>
+        <v>22222</v>
       </c>
       <c r="F84" t="n">
-        <v>39246962.9</v>
+        <v>8629078.1</v>
       </c>
       <c r="G84" t="n">
-        <v>450.1</v>
+        <v>405</v>
       </c>
       <c r="H84" t="n">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="I84" t="n">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="J84" t="n">
-        <v>459</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Shree Investment Finance Co. Ltd.</t>
+          <t>Chhyangdi Hydropower Ltd.</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>445.1</v>
+        <v>407</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-5.3</v>
+        <v>-6.03</v>
       </c>
       <c r="E85" t="n">
-        <v>21679</v>
+        <v>38489</v>
       </c>
       <c r="F85" t="n">
-        <v>9737047.5</v>
+        <v>15358997</v>
       </c>
       <c r="G85" t="n">
-        <v>460.6</v>
+        <v>425</v>
       </c>
       <c r="H85" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="I85" t="n">
-        <v>442</v>
+        <v>389.9</v>
       </c>
       <c r="J85" t="n">
-        <v>470</v>
+        <v>433.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Shine Resunga Development Bank Ltd.</t>
+          <t>Samriddhi Finance Company Limited</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-2.83</v>
+        <v>-5.12</v>
       </c>
       <c r="E86" t="n">
-        <v>31474</v>
+        <v>31295</v>
       </c>
       <c r="F86" t="n">
-        <v>14033141.1</v>
+        <v>12623451.4</v>
       </c>
       <c r="G86" t="n">
-        <v>451.1</v>
+        <v>428</v>
       </c>
       <c r="H86" t="n">
-        <v>454.1</v>
+        <v>430</v>
       </c>
       <c r="I86" t="n">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="J86" t="n">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Guheshowori Merchant Bank &amp; Finance Co. Ltd.</t>
+          <t>Multipurpose Finance Company Limited</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-5.15</v>
+        <v>-5.45</v>
       </c>
       <c r="E87" t="n">
-        <v>11389</v>
+        <v>4175</v>
       </c>
       <c r="F87" t="n">
-        <v>5210965.1</v>
+        <v>1741313</v>
       </c>
       <c r="G87" t="n">
-        <v>475.3</v>
+        <v>433</v>
       </c>
       <c r="H87" t="n">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="I87" t="n">
-        <v>445.2</v>
+        <v>409</v>
       </c>
       <c r="J87" t="n">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Arun Kabeli Power Ltd.</t>
+          <t>Shree Investment Finance Co. Ltd.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-3.33</v>
+        <v>-6.09</v>
       </c>
       <c r="E88" t="n">
-        <v>108734</v>
+        <v>22969</v>
       </c>
       <c r="F88" t="n">
-        <v>49996126.2</v>
+        <v>9741756</v>
       </c>
       <c r="G88" t="n">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="H88" t="n">
-        <v>475.3</v>
+        <v>454</v>
       </c>
       <c r="I88" t="n">
-        <v>452.1</v>
+        <v>411</v>
       </c>
       <c r="J88" t="n">
-        <v>480</v>
+        <v>445.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Prime Commercial Bank Ltd.</t>
+          <t>Manushi Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>467</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>-2.51</v>
+        <v>427.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.01</v>
       </c>
       <c r="E89" t="n">
-        <v>67527</v>
+        <v>20</v>
       </c>
       <c r="F89" t="n">
-        <v>31629422.5</v>
+        <v>8471</v>
       </c>
       <c r="G89" t="n">
-        <v>482</v>
+        <v>419.4</v>
       </c>
       <c r="H89" t="n">
-        <v>482</v>
+        <v>427.7</v>
       </c>
       <c r="I89" t="n">
-        <v>463</v>
+        <v>419.4</v>
       </c>
       <c r="J89" t="n">
-        <v>479</v>
+        <v>411.2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jyoti Bikas Bank Limited</t>
+          <t>Shine Resunga Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-4.48</v>
+        <v>-4.25</v>
       </c>
       <c r="E90" t="n">
-        <v>48726</v>
+        <v>46289</v>
       </c>
       <c r="F90" t="n">
-        <v>23226344.7</v>
+        <v>19699518</v>
       </c>
       <c r="G90" t="n">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="H90" t="n">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="I90" t="n">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="J90" t="n">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Central Finance Co. Ltd.</t>
+          <t>Guheshowori Merchant Bank &amp; Finance Co. Ltd.</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>472</v>
+        <v>432.4</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-5.41</v>
+        <v>-6</v>
       </c>
       <c r="E91" t="n">
-        <v>18021</v>
+        <v>21762</v>
       </c>
       <c r="F91" t="n">
-        <v>8595263</v>
+        <v>9473853.800000001</v>
       </c>
       <c r="G91" t="n">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="H91" t="n">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="I91" t="n">
-        <v>470</v>
+        <v>428.8</v>
       </c>
       <c r="J91" t="n">
-        <v>499</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Nepal Bank Limited</t>
+          <t>Siddhartha Bank Limited</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-2.48</v>
+        <v>-2.25</v>
       </c>
       <c r="E92" t="n">
-        <v>157783</v>
+        <v>84447</v>
       </c>
       <c r="F92" t="n">
-        <v>74616110.8</v>
+        <v>36796842.1</v>
       </c>
       <c r="G92" t="n">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="H92" t="n">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="I92" t="n">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="J92" t="n">
-        <v>484</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Rairang Hydropower Development Company Ltd.</t>
+          <t>Arun Kabeli Power Ltd.</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-6.31</v>
+        <v>-5.17</v>
       </c>
       <c r="E93" t="n">
-        <v>67374</v>
+        <v>131685</v>
       </c>
       <c r="F93" t="n">
-        <v>31927012.9</v>
+        <v>58033285</v>
       </c>
       <c r="G93" t="n">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="H93" t="n">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="I93" t="n">
-        <v>463.7</v>
+        <v>432</v>
       </c>
       <c r="J93" t="n">
-        <v>507</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3634,4278 +3634,4380 @@
         </is>
       </c>
       <c r="C94" t="n">
+        <v>442.7</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5617</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2493803.1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="H94" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>434</v>
+      </c>
+      <c r="J94" t="n">
         <v>475</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>-5.94</v>
-      </c>
-      <c r="E94" t="n">
-        <v>7086</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3404773.7</v>
-      </c>
-      <c r="G94" t="n">
-        <v>515.1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>515.1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>475</v>
-      </c>
-      <c r="J94" t="n">
-        <v>505</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Oriental Hotels Limited</t>
+          <t>Central Finance Co. Ltd.</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-3</v>
+        <v>-5.72</v>
       </c>
       <c r="E95" t="n">
-        <v>6449</v>
+        <v>33810</v>
       </c>
       <c r="F95" t="n">
-        <v>3186543.5</v>
+        <v>15058591.6</v>
       </c>
       <c r="G95" t="n">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="H95" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="I95" t="n">
-        <v>480.5</v>
+        <v>432</v>
       </c>
       <c r="J95" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Butwal Power Company Limited</t>
+          <t>Jyoti Bikas Bank Limited</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>485.1</v>
+        <v>446</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-2.98</v>
+        <v>-4.9</v>
       </c>
       <c r="E96" t="n">
-        <v>17713</v>
+        <v>115461</v>
       </c>
       <c r="F96" t="n">
-        <v>8701754.6</v>
+        <v>51753097.1</v>
       </c>
       <c r="G96" t="n">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="H96" t="n">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="I96" t="n">
-        <v>485.1</v>
+        <v>440</v>
       </c>
       <c r="J96" t="n">
-        <v>500</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nepal Finance Ltd.</t>
+          <t>Prime Commercial Bank Ltd.</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>486</v>
+        <v>447.9</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-5.63</v>
+        <v>-4.09</v>
       </c>
       <c r="E97" t="n">
-        <v>12834</v>
+        <v>100706</v>
       </c>
       <c r="F97" t="n">
-        <v>6352818</v>
+        <v>45149695.9</v>
       </c>
       <c r="G97" t="n">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="H97" t="n">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="I97" t="n">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="J97" t="n">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Reliance Life Insurance Limited</t>
+          <t>Nepal Bank Limited</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>493</v>
+        <v>458.5</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-1.89</v>
+        <v>-2.86</v>
       </c>
       <c r="E98" t="n">
-        <v>9572</v>
+        <v>137334</v>
       </c>
       <c r="F98" t="n">
-        <v>4698713.5</v>
+        <v>62904521.5</v>
       </c>
       <c r="G98" t="n">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="H98" t="n">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="I98" t="n">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="J98" t="n">
-        <v>502.5</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lumbini Bikas Bank Ltd.</t>
+          <t>Rairang Hydropower Development Company Ltd.</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-4.45</v>
+        <v>-3.37</v>
       </c>
       <c r="E99" t="n">
-        <v>53385</v>
+        <v>158039</v>
       </c>
       <c r="F99" t="n">
-        <v>26624878.7</v>
+        <v>68237583.40000001</v>
       </c>
       <c r="G99" t="n">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="H99" t="n">
-        <v>512.9</v>
+        <v>466</v>
       </c>
       <c r="I99" t="n">
-        <v>491</v>
+        <v>427.5</v>
       </c>
       <c r="J99" t="n">
-        <v>517</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Agriculture Development Bank Limited</t>
+          <t>Reliance Finance Ltd.</t>
         </is>
       </c>
       <c r="C100" t="n">
+        <v>462</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>-6.85</v>
+      </c>
+      <c r="E100" t="n">
+        <v>41013</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19091673.9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>494.9</v>
+      </c>
+      <c r="H100" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="I100" t="n">
+        <v>452</v>
+      </c>
+      <c r="J100" t="n">
         <v>496</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>-2.34</v>
-      </c>
-      <c r="E100" t="n">
-        <v>38949</v>
-      </c>
-      <c r="F100" t="n">
-        <v>19403293.9</v>
-      </c>
-      <c r="G100" t="n">
-        <v>508</v>
-      </c>
-      <c r="H100" t="n">
-        <v>508</v>
-      </c>
-      <c r="I100" t="n">
-        <v>494.2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>507.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Reliance Finance Ltd.</t>
+          <t>Lumbini Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-5.61</v>
+        <v>-6.48</v>
       </c>
       <c r="E101" t="n">
-        <v>42647</v>
+        <v>66330</v>
       </c>
       <c r="F101" t="n">
-        <v>21255474.5</v>
+        <v>31030876.2</v>
       </c>
       <c r="G101" t="n">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="H101" t="n">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="I101" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="J101" t="n">
-        <v>525.5</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Kalika power Company Ltd</t>
+          <t>Butwal Power Company Limited</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-7.61</v>
+        <v>-4.56</v>
       </c>
       <c r="E102" t="n">
-        <v>6675</v>
+        <v>38258</v>
       </c>
       <c r="F102" t="n">
-        <v>3345697</v>
+        <v>17842676.8</v>
       </c>
       <c r="G102" t="n">
-        <v>528.3</v>
+        <v>478</v>
       </c>
       <c r="H102" t="n">
-        <v>528.3</v>
+        <v>481</v>
       </c>
       <c r="I102" t="n">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="J102" t="n">
-        <v>539</v>
+        <v>485.1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sanima Bank Limited</t>
+          <t>Nepal Finance Ltd.</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>-2.16</v>
+        <v>-4.32</v>
       </c>
       <c r="E103" t="n">
-        <v>195487</v>
+        <v>14322</v>
       </c>
       <c r="F103" t="n">
-        <v>98174493.59999999</v>
+        <v>6631333.1</v>
       </c>
       <c r="G103" t="n">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="H103" t="n">
-        <v>510</v>
+        <v>485.9</v>
       </c>
       <c r="I103" t="n">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="J103" t="n">
-        <v>510</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Standard Chartered Bank Limited</t>
+          <t>Oriental Hotels Limited</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>-0.38</v>
+        <v>-2.89</v>
       </c>
       <c r="E104" t="n">
-        <v>9758</v>
+        <v>4126</v>
       </c>
       <c r="F104" t="n">
-        <v>5184484.4</v>
+        <v>1954921</v>
       </c>
       <c r="G104" t="n">
-        <v>534</v>
+        <v>493.9</v>
       </c>
       <c r="H104" t="n">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="I104" t="n">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="J104" t="n">
-        <v>533</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sanima Life Insurance Limited</t>
+          <t>Reliance Life Insurance Limited</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>537</v>
+        <v>479.9</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>-2.01</v>
+        <v>-2.66</v>
       </c>
       <c r="E105" t="n">
-        <v>8684</v>
+        <v>18319</v>
       </c>
       <c r="F105" t="n">
-        <v>4650993.5</v>
+        <v>8602804.1</v>
       </c>
       <c r="G105" t="n">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="H105" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="I105" t="n">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="J105" t="n">
-        <v>548</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Radhi Bidyut Company Ltd</t>
+          <t>Sanima Bank Limited</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>543.3</v>
+        <v>490</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>-3.84</v>
+        <v>-1.8</v>
       </c>
       <c r="E106" t="n">
-        <v>21624</v>
+        <v>151621</v>
       </c>
       <c r="F106" t="n">
-        <v>11782585.6</v>
+        <v>73911659.7</v>
       </c>
       <c r="G106" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="H106" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="I106" t="n">
-        <v>535</v>
+        <v>480.2</v>
       </c>
       <c r="J106" t="n">
-        <v>565</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>General Insurance Company Nepal Ltd</t>
+          <t>Agriculture Development Bank Limited</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>-3.54</v>
+        <v>-0.6</v>
       </c>
       <c r="E107" t="n">
-        <v>5531</v>
+        <v>42712</v>
       </c>
       <c r="F107" t="n">
-        <v>3001334.2</v>
+        <v>20766134.8</v>
       </c>
       <c r="G107" t="n">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="H107" t="n">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="I107" t="n">
-        <v>535.2</v>
+        <v>482</v>
       </c>
       <c r="J107" t="n">
-        <v>565</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Excel Development Bank Ltd.</t>
+          <t>Kalika power Company Ltd</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>-1.64</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>3699</v>
+        <v>11940</v>
       </c>
       <c r="F108" t="n">
-        <v>2031572.8</v>
+        <v>5552925.3</v>
       </c>
       <c r="G108" t="n">
-        <v>555</v>
+        <v>488.1</v>
       </c>
       <c r="H108" t="n">
-        <v>564</v>
+        <v>527.4</v>
       </c>
       <c r="I108" t="n">
-        <v>540</v>
+        <v>448.2</v>
       </c>
       <c r="J108" t="n">
-        <v>554.1</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Garima Bikas Bank Limited</t>
+          <t>Radhi Bidyut Company Ltd</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>553.5</v>
+        <v>514</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>-3.74</v>
+        <v>-5.39</v>
       </c>
       <c r="E109" t="n">
-        <v>50548</v>
+        <v>32592</v>
       </c>
       <c r="F109" t="n">
-        <v>28242496.3</v>
+        <v>16827225.6</v>
       </c>
       <c r="G109" t="n">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="H109" t="n">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="I109" t="n">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="J109" t="n">
-        <v>575</v>
+        <v>543.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Jyoti Life Insurance Ltd</t>
+          <t>Sanima Life Insurance Limited</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>555.5</v>
+        <v>516</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>-1.16</v>
+        <v>-3.91</v>
       </c>
       <c r="E110" t="n">
-        <v>5338</v>
+        <v>11334</v>
       </c>
       <c r="F110" t="n">
-        <v>2969988.8</v>
+        <v>5840882.5</v>
       </c>
       <c r="G110" t="n">
-        <v>555</v>
+        <v>526.3</v>
       </c>
       <c r="H110" t="n">
-        <v>566</v>
+        <v>526.3</v>
       </c>
       <c r="I110" t="n">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="J110" t="n">
-        <v>562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Gurans Life Insurance Company Ltd.</t>
+          <t>Standard Chartered Bank Limited</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>-3.92</v>
+        <v>-2.07</v>
       </c>
       <c r="E111" t="n">
-        <v>12912</v>
+        <v>16019</v>
       </c>
       <c r="F111" t="n">
-        <v>7342508.1</v>
+        <v>8360078.5</v>
       </c>
       <c r="G111" t="n">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="H111" t="n">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="I111" t="n">
-        <v>563.5</v>
+        <v>515</v>
       </c>
       <c r="J111" t="n">
-        <v>587</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pokhara Finance Ltd.</t>
+          <t>General Insurance Company Nepal Ltd</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>-4.24</v>
+        <v>-4.59</v>
       </c>
       <c r="E112" t="n">
-        <v>6963</v>
+        <v>8232</v>
       </c>
       <c r="F112" t="n">
-        <v>3958238</v>
+        <v>4232205.2</v>
       </c>
       <c r="G112" t="n">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="H112" t="n">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="I112" t="n">
-        <v>553.7</v>
+        <v>499</v>
       </c>
       <c r="J112" t="n">
-        <v>590</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sanima General Insurance Limited</t>
+          <t>Pokhara Finance Ltd.</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>568</v>
+        <v>520</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>-4.54</v>
+        <v>-7.96</v>
       </c>
       <c r="E113" t="n">
-        <v>4387</v>
+        <v>20763</v>
       </c>
       <c r="F113" t="n">
-        <v>2504637</v>
+        <v>10862793</v>
       </c>
       <c r="G113" t="n">
-        <v>584</v>
+        <v>553.7</v>
       </c>
       <c r="H113" t="n">
-        <v>595.5</v>
+        <v>564</v>
       </c>
       <c r="I113" t="n">
-        <v>560</v>
+        <v>513</v>
       </c>
       <c r="J113" t="n">
-        <v>595</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Janaki Finance Ltd.</t>
+          <t>Garima Bikas Bank Limited</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>569.9</v>
+        <v>524</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>-4.06</v>
+        <v>-5.33</v>
       </c>
       <c r="E114" t="n">
-        <v>12188</v>
+        <v>92826</v>
       </c>
       <c r="F114" t="n">
-        <v>6967052.5</v>
+        <v>48761946.9</v>
       </c>
       <c r="G114" t="n">
-        <v>582.2</v>
+        <v>545</v>
       </c>
       <c r="H114" t="n">
-        <v>582.2</v>
+        <v>549</v>
       </c>
       <c r="I114" t="n">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="J114" t="n">
-        <v>594</v>
+        <v>553.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>United Insurance Co. (Nepal) Ltd.</t>
+          <t>Excel Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>-5.32</v>
+        <v>-2.75</v>
       </c>
       <c r="E115" t="n">
-        <v>12763</v>
+        <v>2009</v>
       </c>
       <c r="F115" t="n">
-        <v>7372934</v>
+        <v>1075696</v>
       </c>
       <c r="G115" t="n">
-        <v>590</v>
+        <v>545</v>
       </c>
       <c r="H115" t="n">
-        <v>591.6</v>
+        <v>549.9</v>
       </c>
       <c r="I115" t="n">
-        <v>570</v>
+        <v>527.1</v>
       </c>
       <c r="J115" t="n">
-        <v>602</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Union Life Insurance Company Limited</t>
+          <t>Jyoti Life Insurance Ltd</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>-1.37</v>
+        <v>-2.97</v>
       </c>
       <c r="E116" t="n">
-        <v>12270</v>
+        <v>6013</v>
       </c>
       <c r="F116" t="n">
-        <v>7077621</v>
+        <v>3247257.2</v>
       </c>
       <c r="G116" t="n">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="H116" t="n">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="I116" t="n">
-        <v>570</v>
+        <v>535.1</v>
       </c>
       <c r="J116" t="n">
-        <v>585</v>
+        <v>555.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Upper Tamakoshi Hydropower Ltd</t>
+          <t>Janaki Finance Ltd.</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>-3.65</v>
+        <v>-5.25</v>
       </c>
       <c r="E117" t="n">
-        <v>48699</v>
+        <v>24277</v>
       </c>
       <c r="F117" t="n">
-        <v>28568824.6</v>
+        <v>13085076</v>
       </c>
       <c r="G117" t="n">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="H117" t="n">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="I117" t="n">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="J117" t="n">
-        <v>603</v>
+        <v>569.9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Miteri Development Bank Limited</t>
+          <t>Gurans Life Insurance Company Ltd.</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>585.1</v>
+        <v>545</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>-3.61</v>
+        <v>-3.37</v>
       </c>
       <c r="E118" t="n">
-        <v>18806</v>
+        <v>18365</v>
       </c>
       <c r="F118" t="n">
-        <v>11116595.4</v>
+        <v>9956963.1</v>
       </c>
       <c r="G118" t="n">
-        <v>595.2</v>
+        <v>560</v>
       </c>
       <c r="H118" t="n">
-        <v>604</v>
+        <v>561.3</v>
       </c>
       <c r="I118" t="n">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="J118" t="n">
-        <v>607</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ngadi Group Power Ltd.</t>
+          <t>Sanima General Insurance Limited</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>-3.91</v>
+        <v>-2.99</v>
       </c>
       <c r="E119" t="n">
-        <v>39798</v>
+        <v>3605</v>
       </c>
       <c r="F119" t="n">
-        <v>23526771</v>
+        <v>1981823.6</v>
       </c>
       <c r="G119" t="n">
-        <v>602.1</v>
+        <v>556.7</v>
       </c>
       <c r="H119" t="n">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="I119" t="n">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="J119" t="n">
-        <v>614</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Prabhu Life Insurance Limited</t>
+          <t>Chilime Hydropower Company Limited</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>593.9</v>
+        <v>552</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>-1.83</v>
+        <v>-7.38</v>
       </c>
       <c r="E120" t="n">
-        <v>8032</v>
+        <v>67622</v>
       </c>
       <c r="F120" t="n">
-        <v>4726814</v>
+        <v>37935016.9</v>
       </c>
       <c r="G120" t="n">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H120" t="n">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="I120" t="n">
-        <v>574.3</v>
+        <v>552</v>
       </c>
       <c r="J120" t="n">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mahalaxmi Bikas Bank Ltd.</t>
+          <t>Miteri Development Bank Limited</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>594.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.99</v>
+        <v>556</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-4.97</v>
       </c>
       <c r="E121" t="n">
-        <v>100245</v>
+        <v>31525</v>
       </c>
       <c r="F121" t="n">
-        <v>56611437.2</v>
+        <v>17556911.6</v>
       </c>
       <c r="G121" t="n">
-        <v>573</v>
+        <v>573.4</v>
       </c>
       <c r="H121" t="n">
-        <v>594.6</v>
+        <v>575.3</v>
       </c>
       <c r="I121" t="n">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="J121" t="n">
-        <v>583</v>
+        <v>585.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chilime Hydropower Company Limited</t>
+          <t>United Insurance Co. (Nepal) Ltd.</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>596</v>
+        <v>556.9</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>-1.16</v>
+        <v>-2.3</v>
       </c>
       <c r="E122" t="n">
-        <v>18290</v>
+        <v>18757</v>
       </c>
       <c r="F122" t="n">
-        <v>10838735.1</v>
+        <v>10367785</v>
       </c>
       <c r="G122" t="n">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="H122" t="n">
-        <v>604</v>
+        <v>569.7</v>
       </c>
       <c r="I122" t="n">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="J122" t="n">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NRN Infrastructure and Development Limited</t>
+          <t>Upper Tamakoshi Hydropower Ltd</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>-3.24</v>
+        <v>-3.96</v>
       </c>
       <c r="E123" t="n">
-        <v>21743</v>
+        <v>63684</v>
       </c>
       <c r="F123" t="n">
-        <v>12927905.5</v>
+        <v>35667370.7</v>
       </c>
       <c r="G123" t="n">
-        <v>605.7</v>
+        <v>576</v>
       </c>
       <c r="H123" t="n">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="I123" t="n">
-        <v>569</v>
+        <v>550.1</v>
       </c>
       <c r="J123" t="n">
-        <v>618</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ridi Hydropower Development Company Ltd.</t>
+          <t>Union Life Insurance Company Limited</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>617.1</v>
+        <v>560.3</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>-2.05</v>
+        <v>-2.89</v>
       </c>
       <c r="E124" t="n">
-        <v>67036</v>
+        <v>11053</v>
       </c>
       <c r="F124" t="n">
-        <v>41081963.5</v>
+        <v>6267207.5</v>
       </c>
       <c r="G124" t="n">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="H124" t="n">
-        <v>623</v>
+        <v>574</v>
       </c>
       <c r="I124" t="n">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="J124" t="n">
-        <v>630</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Everest Insurance Co. Ltd.</t>
+          <t>NRN Infrastructure and Development Limited</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>-4.73</v>
+        <v>-4.52</v>
       </c>
       <c r="E125" t="n">
-        <v>14406</v>
+        <v>7114</v>
       </c>
       <c r="F125" t="n">
-        <v>9056427.6</v>
+        <v>4085773.9</v>
       </c>
       <c r="G125" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H125" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="I125" t="n">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="J125" t="n">
-        <v>655</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Himalayan General Insurance Co. Ltd</t>
+          <t>Ngadi Group Power Ltd.</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>630</v>
+        <v>572.1</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>-4.24</v>
+        <v>-3.03</v>
       </c>
       <c r="E126" t="n">
-        <v>18057</v>
+        <v>19514</v>
       </c>
       <c r="F126" t="n">
-        <v>11332645.4</v>
+        <v>11061377.5</v>
       </c>
       <c r="G126" t="n">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="H126" t="n">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="I126" t="n">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="J126" t="n">
-        <v>657.9</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Goodwill Finance Co. Ltd.</t>
+          <t>Prabhu Life Insurance Limited</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>636</v>
+        <v>576</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>-6.33</v>
+        <v>-3.01</v>
       </c>
       <c r="E127" t="n">
-        <v>17837</v>
+        <v>5783</v>
       </c>
       <c r="F127" t="n">
-        <v>11577306.9</v>
+        <v>3311609</v>
       </c>
       <c r="G127" t="n">
-        <v>665.5</v>
+        <v>582.1</v>
       </c>
       <c r="H127" t="n">
-        <v>667</v>
+        <v>582.1</v>
       </c>
       <c r="I127" t="n">
-        <v>635.6</v>
+        <v>570</v>
       </c>
       <c r="J127" t="n">
-        <v>679</v>
+        <v>593.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Lumbini General Insurance Co. Ltd.</t>
+          <t>Mahalaxmi Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>640</v>
+        <v>579</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>-6.14</v>
+        <v>-2.62</v>
       </c>
       <c r="E128" t="n">
-        <v>14799</v>
+        <v>106382</v>
       </c>
       <c r="F128" t="n">
-        <v>9608163.699999999</v>
+        <v>59303647.6</v>
       </c>
       <c r="G128" t="n">
-        <v>669</v>
+        <v>594.6</v>
       </c>
       <c r="H128" t="n">
-        <v>675</v>
+        <v>594.6</v>
       </c>
       <c r="I128" t="n">
-        <v>630.2</v>
+        <v>545</v>
       </c>
       <c r="J128" t="n">
-        <v>681.9</v>
+        <v>594.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Prudential Insurance Co. Ltd.</t>
+          <t>Ridi Hydropower Development Company Ltd.</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>-7.19</v>
+        <v>-4.55</v>
       </c>
       <c r="E129" t="n">
-        <v>9865</v>
+        <v>69586</v>
       </c>
       <c r="F129" t="n">
-        <v>6454160.5</v>
+        <v>40968851.3</v>
       </c>
       <c r="G129" t="n">
-        <v>682</v>
+        <v>629.4</v>
       </c>
       <c r="H129" t="n">
-        <v>682</v>
+        <v>629.4</v>
       </c>
       <c r="I129" t="n">
-        <v>643</v>
+        <v>577</v>
       </c>
       <c r="J129" t="n">
-        <v>695</v>
+        <v>617.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ICFC Finance Limited</t>
+          <t>Everest Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>-3.76</v>
+        <v>-4.17</v>
       </c>
       <c r="E130" t="n">
-        <v>44108</v>
+        <v>18455</v>
       </c>
       <c r="F130" t="n">
-        <v>28735259.9</v>
+        <v>11166229.8</v>
       </c>
       <c r="G130" t="n">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="H130" t="n">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="I130" t="n">
-        <v>643</v>
+        <v>597.2</v>
       </c>
       <c r="J130" t="n">
-        <v>670.2</v>
+        <v>624</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kamana Sewa Bikas Bank Limited</t>
+          <t>ICFC Finance Limited</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>-3.21</v>
+        <v>-6.98</v>
       </c>
       <c r="E131" t="n">
-        <v>72200</v>
+        <v>73116</v>
       </c>
       <c r="F131" t="n">
-        <v>48073162.5</v>
+        <v>44158322.6</v>
       </c>
       <c r="G131" t="n">
-        <v>690</v>
+        <v>633</v>
       </c>
       <c r="H131" t="n">
-        <v>690</v>
+        <v>633</v>
       </c>
       <c r="I131" t="n">
-        <v>656.6</v>
+        <v>588</v>
       </c>
       <c r="J131" t="n">
-        <v>682.9</v>
+        <v>645</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Muktinath Bikas Bank Ltd.</t>
+          <t>Himalayan General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>-4.18</v>
+        <v>-4.76</v>
       </c>
       <c r="E132" t="n">
-        <v>63601</v>
+        <v>12386</v>
       </c>
       <c r="F132" t="n">
-        <v>43028575.7</v>
+        <v>7497225.2</v>
       </c>
       <c r="G132" t="n">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="H132" t="n">
-        <v>693</v>
+        <v>618</v>
       </c>
       <c r="I132" t="n">
-        <v>660</v>
+        <v>595</v>
       </c>
       <c r="J132" t="n">
-        <v>699.2</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ajod Insurance Limited</t>
+          <t>Goodwill Finance Co. Ltd.</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>690</v>
+        <v>609</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>-2.14</v>
+        <v>-4.25</v>
       </c>
       <c r="E133" t="n">
-        <v>2754</v>
+        <v>32074</v>
       </c>
       <c r="F133" t="n">
-        <v>1901709.5</v>
+        <v>19238865.4</v>
       </c>
       <c r="G133" t="n">
-        <v>691</v>
+        <v>623.3</v>
       </c>
       <c r="H133" t="n">
-        <v>702</v>
+        <v>637.5</v>
       </c>
       <c r="I133" t="n">
-        <v>685.1</v>
+        <v>582.3</v>
       </c>
       <c r="J133" t="n">
-        <v>705.1</v>
+        <v>636</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Everest Bank Limited</t>
+          <t>Lumbini General Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>700.1</v>
+        <v>615.1</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>-1.95</v>
+        <v>-3.89</v>
       </c>
       <c r="E134" t="n">
-        <v>29060</v>
+        <v>17320</v>
       </c>
       <c r="F134" t="n">
-        <v>20389292.6</v>
+        <v>10670920.5</v>
       </c>
       <c r="G134" t="n">
-        <v>710</v>
+        <v>630</v>
       </c>
       <c r="H134" t="n">
-        <v>710</v>
+        <v>633</v>
       </c>
       <c r="I134" t="n">
-        <v>699.8</v>
+        <v>605.8</v>
       </c>
       <c r="J134" t="n">
-        <v>714</v>
+        <v>640</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Narayani Development Bank Limited</t>
+          <t>Prudential Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>720</v>
+        <v>620.1</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>-4.61</v>
+        <v>-3.86</v>
       </c>
       <c r="E135" t="n">
-        <v>702</v>
+        <v>9785</v>
       </c>
       <c r="F135" t="n">
-        <v>503167</v>
+        <v>6134663.3</v>
       </c>
       <c r="G135" t="n">
-        <v>742</v>
+        <v>633</v>
       </c>
       <c r="H135" t="n">
-        <v>742</v>
+        <v>657</v>
       </c>
       <c r="I135" t="n">
-        <v>710.6</v>
+        <v>620.1</v>
       </c>
       <c r="J135" t="n">
-        <v>754.8</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Prabhu Insurance Ltd.</t>
+          <t>Kamana Sewa Bikas Bank Limited</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>747</v>
+        <v>635</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>-4.23</v>
+        <v>-3.93</v>
       </c>
       <c r="E136" t="n">
-        <v>6201</v>
+        <v>83719</v>
       </c>
       <c r="F136" t="n">
-        <v>4660350.5</v>
+        <v>53294565.9</v>
       </c>
       <c r="G136" t="n">
-        <v>766.1</v>
+        <v>651</v>
       </c>
       <c r="H136" t="n">
-        <v>766.1</v>
+        <v>660</v>
       </c>
       <c r="I136" t="n">
-        <v>739</v>
+        <v>625.5</v>
       </c>
       <c r="J136" t="n">
-        <v>780</v>
+        <v>661</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Corporate Development Bank Limited</t>
+          <t>Muktinath Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>761</v>
+        <v>649</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>-3.67</v>
+        <v>-3.13</v>
       </c>
       <c r="E137" t="n">
-        <v>3790</v>
+        <v>63783</v>
       </c>
       <c r="F137" t="n">
-        <v>2892204</v>
+        <v>41298786.6</v>
       </c>
       <c r="G137" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="H137" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="I137" t="n">
-        <v>750</v>
+        <v>640</v>
       </c>
       <c r="J137" t="n">
-        <v>790</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Surya Life Insurance Company Limited</t>
+          <t>Ajod Insurance Limited</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>773</v>
+        <v>666.1</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>-4.57</v>
+        <v>-3.46</v>
       </c>
       <c r="E138" t="n">
-        <v>17845</v>
+        <v>3630</v>
       </c>
       <c r="F138" t="n">
-        <v>13969146.1</v>
+        <v>2438727</v>
       </c>
       <c r="G138" t="n">
-        <v>796</v>
+        <v>680</v>
       </c>
       <c r="H138" t="n">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="I138" t="n">
-        <v>773</v>
+        <v>666</v>
       </c>
       <c r="J138" t="n">
-        <v>810</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CEDB Hydropower Development Company Limited</t>
+          <t>Narayani Development Bank Limited</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>779</v>
+        <v>682</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>-5</v>
+        <v>-5.28</v>
       </c>
       <c r="E139" t="n">
-        <v>25182</v>
+        <v>3761</v>
       </c>
       <c r="F139" t="n">
-        <v>19433063.2</v>
+        <v>2597073.5</v>
       </c>
       <c r="G139" t="n">
-        <v>804</v>
+        <v>705.6</v>
       </c>
       <c r="H139" t="n">
-        <v>804</v>
+        <v>714</v>
       </c>
       <c r="I139" t="n">
-        <v>759.1</v>
+        <v>670</v>
       </c>
       <c r="J139" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nepal Insurance Co. Ltd.</t>
+          <t>Everest Bank Limited</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>784.7</v>
+        <v>697</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>-2.52</v>
+        <v>-0.44</v>
       </c>
       <c r="E140" t="n">
-        <v>13056</v>
+        <v>43410</v>
       </c>
       <c r="F140" t="n">
-        <v>10165697.6</v>
+        <v>30081945.9</v>
       </c>
       <c r="G140" t="n">
-        <v>805</v>
+        <v>697</v>
       </c>
       <c r="H140" t="n">
-        <v>817</v>
+        <v>699</v>
       </c>
       <c r="I140" t="n">
-        <v>770</v>
+        <v>687.3</v>
       </c>
       <c r="J140" t="n">
-        <v>805</v>
+        <v>700.1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Prime Life Insurance Company Limited</t>
+          <t>CEDB Hydropower Development Company Limited</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>824</v>
+        <v>735.9</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>-1.67</v>
+        <v>-5.53</v>
       </c>
       <c r="E141" t="n">
-        <v>13218</v>
+        <v>16941</v>
       </c>
       <c r="F141" t="n">
-        <v>10835044.7</v>
+        <v>12422438.3</v>
       </c>
       <c r="G141" t="n">
-        <v>835</v>
+        <v>760</v>
       </c>
       <c r="H141" t="n">
-        <v>835</v>
+        <v>760</v>
       </c>
       <c r="I141" t="n">
-        <v>813</v>
+        <v>708</v>
       </c>
       <c r="J141" t="n">
-        <v>838</v>
+        <v>779</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Siddhartha Insurance Ltd.</t>
+          <t>Prabhu Insurance Ltd.</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>825</v>
+        <v>746</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>-5.39</v>
+        <v>-0.13</v>
       </c>
       <c r="E142" t="n">
-        <v>4779</v>
+        <v>11807</v>
       </c>
       <c r="F142" t="n">
-        <v>4052185</v>
+        <v>8622903.4</v>
       </c>
       <c r="G142" t="n">
-        <v>870</v>
+        <v>732.2</v>
       </c>
       <c r="H142" t="n">
-        <v>871</v>
+        <v>776.2</v>
       </c>
       <c r="I142" t="n">
-        <v>825</v>
+        <v>725</v>
       </c>
       <c r="J142" t="n">
-        <v>872</v>
+        <v>747</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RSDC Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Nepal Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>-3.14</v>
+        <v>-4.55</v>
       </c>
       <c r="E143" t="n">
-        <v>3716</v>
+        <v>24208</v>
       </c>
       <c r="F143" t="n">
-        <v>3093754.6</v>
+        <v>18263189.7</v>
       </c>
       <c r="G143" t="n">
-        <v>837</v>
+        <v>770</v>
       </c>
       <c r="H143" t="n">
-        <v>865</v>
+        <v>770</v>
       </c>
       <c r="I143" t="n">
-        <v>822</v>
+        <v>744</v>
       </c>
       <c r="J143" t="n">
-        <v>853.8</v>
+        <v>784.7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Gurkhas Finance Ltd.</t>
+          <t>Corporate Development Bank Limited</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>830</v>
+        <v>749.2</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>-3.49</v>
+        <v>-1.55</v>
       </c>
       <c r="E144" t="n">
-        <v>14379</v>
+        <v>3347</v>
       </c>
       <c r="F144" t="n">
-        <v>11907040.1</v>
+        <v>2458931</v>
       </c>
       <c r="G144" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="H144" t="n">
-        <v>877</v>
+        <v>780</v>
       </c>
       <c r="I144" t="n">
-        <v>810</v>
+        <v>706</v>
       </c>
       <c r="J144" t="n">
-        <v>860</v>
+        <v>761</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NIC Asia Bank Ltd.</t>
+          <t>Surya Life Insurance Company Limited</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>-2.24</v>
+        <v>-2.98</v>
       </c>
       <c r="E145" t="n">
-        <v>62559</v>
+        <v>17726</v>
       </c>
       <c r="F145" t="n">
-        <v>51815862.8</v>
+        <v>13262541.6</v>
       </c>
       <c r="G145" t="n">
-        <v>849</v>
+        <v>765</v>
       </c>
       <c r="H145" t="n">
-        <v>849</v>
+        <v>775</v>
       </c>
       <c r="I145" t="n">
-        <v>816</v>
+        <v>736</v>
       </c>
       <c r="J145" t="n">
-        <v>849</v>
+        <v>773</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NLG Insurance Company Ltd.</t>
+          <t>Gurkhas Finance Ltd.</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>858</v>
+        <v>773</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>-4.13</v>
+        <v>-6.87</v>
       </c>
       <c r="E146" t="n">
-        <v>9693</v>
+        <v>9844</v>
       </c>
       <c r="F146" t="n">
-        <v>8422418.5</v>
+        <v>7555616.5</v>
       </c>
       <c r="G146" t="n">
-        <v>881</v>
+        <v>827</v>
       </c>
       <c r="H146" t="n">
-        <v>887</v>
+        <v>827</v>
       </c>
       <c r="I146" t="n">
-        <v>857</v>
+        <v>748.1</v>
       </c>
       <c r="J146" t="n">
-        <v>895</v>
+        <v>830</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>First Micro Finance Development Bank Ltd.</t>
+          <t>NIC Asia Bank Ltd.</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>880</v>
+        <v>791</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>-2.76</v>
+        <v>-4.7</v>
       </c>
       <c r="E147" t="n">
-        <v>18281</v>
+        <v>110546</v>
       </c>
       <c r="F147" t="n">
-        <v>16073639.5</v>
+        <v>88183538.7</v>
       </c>
       <c r="G147" t="n">
-        <v>900</v>
+        <v>818</v>
       </c>
       <c r="H147" t="n">
-        <v>900.1</v>
+        <v>819</v>
       </c>
       <c r="I147" t="n">
-        <v>863</v>
+        <v>785</v>
       </c>
       <c r="J147" t="n">
-        <v>905</v>
+        <v>830</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>National Life Insurance Co. Ltd.</t>
+          <t>Siddhartha Insurance Ltd.</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>932</v>
+        <v>800</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>-3.13</v>
+        <v>-3.03</v>
       </c>
       <c r="E148" t="n">
-        <v>12835</v>
+        <v>4739</v>
       </c>
       <c r="F148" t="n">
-        <v>12048197</v>
+        <v>3830246.4</v>
       </c>
       <c r="G148" t="n">
-        <v>951</v>
+        <v>825</v>
       </c>
       <c r="H148" t="n">
-        <v>961</v>
+        <v>841.5</v>
       </c>
       <c r="I148" t="n">
-        <v>930</v>
+        <v>798</v>
       </c>
       <c r="J148" t="n">
-        <v>962.1</v>
+        <v>825</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>8.75 % Prime Debenture 2085</t>
+          <t>RSDC Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>954.1</v>
+        <v>806</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>-0.62</v>
+        <v>-2.54</v>
       </c>
       <c r="E149" t="n">
-        <v>25</v>
+        <v>7465</v>
       </c>
       <c r="F149" t="n">
-        <v>23852.5</v>
+        <v>5975726.3</v>
       </c>
       <c r="G149" t="n">
-        <v>954.1</v>
+        <v>843.5</v>
       </c>
       <c r="H149" t="n">
-        <v>954.1</v>
+        <v>843.5</v>
       </c>
       <c r="I149" t="n">
-        <v>954.1</v>
+        <v>784</v>
       </c>
       <c r="J149" t="n">
-        <v>960.1</v>
+        <v>827</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Grameen Bikas Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Prime Life Insurance Company Limited</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>981</v>
+        <v>810</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>-2.39</v>
+        <v>-1.7</v>
       </c>
       <c r="E150" t="n">
-        <v>6790</v>
+        <v>16795</v>
       </c>
       <c r="F150" t="n">
-        <v>6639273.1</v>
+        <v>13550529</v>
       </c>
       <c r="G150" t="n">
-        <v>996</v>
+        <v>835</v>
       </c>
       <c r="H150" t="n">
-        <v>996</v>
+        <v>835</v>
       </c>
       <c r="I150" t="n">
-        <v>966</v>
+        <v>799</v>
       </c>
       <c r="J150" t="n">
-        <v>1005</v>
+        <v>824</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Premier Insurance Co. Ltd.</t>
+          <t>NLG Insurance Company Ltd.</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>983.3</v>
+        <v>835</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>-4.53</v>
+        <v>-2.68</v>
       </c>
       <c r="E151" t="n">
-        <v>9135</v>
+        <v>9962</v>
       </c>
       <c r="F151" t="n">
-        <v>9042856.9</v>
+        <v>8359178.5</v>
       </c>
       <c r="G151" t="n">
-        <v>1015</v>
+        <v>841</v>
       </c>
       <c r="H151" t="n">
-        <v>1015</v>
+        <v>860</v>
       </c>
       <c r="I151" t="n">
-        <v>983.3</v>
+        <v>824.2</v>
       </c>
       <c r="J151" t="n">
-        <v>1030</v>
+        <v>858</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ru Ru Jalbidhyut Pariyojana Limited</t>
+          <t>First Micro Finance Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>988.9</v>
+        <v>854</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>-5.37</v>
+        <v>-2.95</v>
       </c>
       <c r="E152" t="n">
-        <v>830</v>
+        <v>10998</v>
       </c>
       <c r="F152" t="n">
-        <v>827717</v>
+        <v>9418039.4</v>
       </c>
       <c r="G152" t="n">
-        <v>1024.1</v>
+        <v>863</v>
       </c>
       <c r="H152" t="n">
-        <v>1024.1</v>
+        <v>880</v>
       </c>
       <c r="I152" t="n">
-        <v>985.1</v>
+        <v>850</v>
       </c>
       <c r="J152" t="n">
-        <v>1045</v>
+        <v>880</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>IME General Insurance Ltd.</t>
+          <t>National Life Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>989</v>
+        <v>898</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>-3.98</v>
+        <v>-3.65</v>
       </c>
       <c r="E153" t="n">
-        <v>5464</v>
+        <v>25005</v>
       </c>
       <c r="F153" t="n">
-        <v>5430059.1</v>
+        <v>22515774</v>
       </c>
       <c r="G153" t="n">
-        <v>1030</v>
+        <v>928</v>
       </c>
       <c r="H153" t="n">
-        <v>1030</v>
+        <v>928</v>
       </c>
       <c r="I153" t="n">
-        <v>985</v>
+        <v>886.1</v>
       </c>
       <c r="J153" t="n">
-        <v>1030</v>
+        <v>932</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nepal Doorsanchar Comapany Limited</t>
+          <t>Grameen Bikas Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1000</v>
+        <v>938.9</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>-2.15</v>
+        <v>-4.29</v>
       </c>
       <c r="E154" t="n">
-        <v>9217</v>
+        <v>16181</v>
       </c>
       <c r="F154" t="n">
-        <v>9238043.5</v>
+        <v>15020512.7</v>
       </c>
       <c r="G154" t="n">
-        <v>1002</v>
+        <v>961.4</v>
       </c>
       <c r="H154" t="n">
-        <v>1022</v>
+        <v>961.4</v>
       </c>
       <c r="I154" t="n">
-        <v>1000</v>
+        <v>906</v>
       </c>
       <c r="J154" t="n">
-        <v>1022</v>
+        <v>981</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10.35% Agricultural Bank Debenture 2083</t>
+          <t>Premier Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1015</v>
+        <v>950</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>-1.65</v>
+        <v>-3.39</v>
       </c>
       <c r="E155" t="n">
-        <v>260</v>
+        <v>13703</v>
       </c>
       <c r="F155" t="n">
-        <v>263905</v>
+        <v>13076273.4</v>
       </c>
       <c r="G155" t="n">
-        <v>1015.1</v>
+        <v>970.2</v>
       </c>
       <c r="H155" t="n">
-        <v>1015.1</v>
+        <v>982</v>
       </c>
       <c r="I155" t="n">
-        <v>1015</v>
+        <v>933</v>
       </c>
       <c r="J155" t="n">
-        <v>1032</v>
+        <v>983.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>10% Prabhu Bank Debenture 2084</t>
+          <t>IME General Insurance Ltd.</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1020</v>
+        <v>959</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>-0.78</v>
+        <v>-3.03</v>
       </c>
       <c r="E156" t="n">
-        <v>55</v>
+        <v>10035</v>
       </c>
       <c r="F156" t="n">
-        <v>56100</v>
+        <v>9554383.6</v>
       </c>
       <c r="G156" t="n">
-        <v>1020</v>
+        <v>969.3</v>
       </c>
       <c r="H156" t="n">
-        <v>1020</v>
+        <v>972</v>
       </c>
       <c r="I156" t="n">
-        <v>1020</v>
+        <v>941</v>
       </c>
       <c r="J156" t="n">
-        <v>1028</v>
+        <v>989</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Manjushree Finance Ltd.</t>
+          <t>Ru Ru Jalbidhyut Pariyojana Limited</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>-2.86</v>
+        <v>-1.91</v>
       </c>
       <c r="E157" t="n">
-        <v>31988</v>
+        <v>1805</v>
       </c>
       <c r="F157" t="n">
-        <v>32510544.7</v>
+        <v>1706565</v>
       </c>
       <c r="G157" t="n">
-        <v>1050</v>
+        <v>970</v>
       </c>
       <c r="H157" t="n">
-        <v>1051</v>
+        <v>970</v>
       </c>
       <c r="I157" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="J157" t="n">
-        <v>1050</v>
+        <v>988.9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mountain Energy Nepal Limited</t>
+          <t>Nepal Doorsanchar Comapany Limited</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1051</v>
+        <v>995</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>-5.74</v>
+        <v>-0.5</v>
       </c>
       <c r="E158" t="n">
-        <v>3418</v>
+        <v>13873</v>
       </c>
       <c r="F158" t="n">
-        <v>3663447</v>
+        <v>13633088.5</v>
       </c>
       <c r="G158" t="n">
-        <v>1092.7</v>
+        <v>990</v>
       </c>
       <c r="H158" t="n">
-        <v>1114.5</v>
+        <v>995</v>
       </c>
       <c r="I158" t="n">
-        <v>1051</v>
+        <v>972</v>
       </c>
       <c r="J158" t="n">
-        <v>1115</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>11% NIC Asia Debenture 082/83</t>
+          <t>Manjushree Finance Ltd.</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1056.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>2</v>
+        <v>1004.5</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>-1.52</v>
       </c>
       <c r="E159" t="n">
-        <v>200</v>
+        <v>30064</v>
       </c>
       <c r="F159" t="n">
-        <v>211340</v>
+        <v>30014385.6</v>
       </c>
       <c r="G159" t="n">
-        <v>1056.7</v>
+        <v>999.6</v>
       </c>
       <c r="H159" t="n">
-        <v>1056.7</v>
+        <v>1020</v>
       </c>
       <c r="I159" t="n">
-        <v>1056.7</v>
+        <v>980</v>
       </c>
       <c r="J159" t="n">
-        <v>1036</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NIC ASIA Laghubitta Bittiya Sanstha Limited</t>
+          <t>10.35% Agricultural Bank Debenture 2083</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1097</v>
+        <v>1005</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>-2.92</v>
+        <v>-0.99</v>
       </c>
       <c r="E160" t="n">
-        <v>15305</v>
+        <v>15</v>
       </c>
       <c r="F160" t="n">
-        <v>16902769.2</v>
+        <v>15075</v>
       </c>
       <c r="G160" t="n">
-        <v>1108</v>
+        <v>1005</v>
       </c>
       <c r="H160" t="n">
-        <v>1128</v>
+        <v>1005</v>
       </c>
       <c r="I160" t="n">
-        <v>1090</v>
+        <v>1005</v>
       </c>
       <c r="J160" t="n">
-        <v>1130</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>12% ICFC Finance Limited Debenture 2083</t>
+          <t>10% Prabhu Bank Debenture 2084</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1130</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.89</v>
+        <v>1020</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>884</v>
+        <v>50</v>
       </c>
       <c r="F161" t="n">
-        <v>995770</v>
+        <v>51000</v>
       </c>
       <c r="G161" t="n">
-        <v>1140</v>
+        <v>1020</v>
       </c>
       <c r="H161" t="n">
-        <v>1140</v>
+        <v>1020</v>
       </c>
       <c r="I161" t="n">
-        <v>1118</v>
+        <v>1020</v>
       </c>
       <c r="J161" t="n">
-        <v>1120</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>12 % Goodwill Finance Limited Debenture 2083</t>
+          <t>10.25% KBL Debenture 2086</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1140</v>
+        <v>1074</v>
       </c>
       <c r="D162" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>671</v>
+        <v>25</v>
       </c>
       <c r="F162" t="n">
-        <v>759375</v>
+        <v>26850</v>
       </c>
       <c r="G162" t="n">
-        <v>1140</v>
+        <v>1074</v>
       </c>
       <c r="H162" t="n">
-        <v>1140</v>
+        <v>1074</v>
       </c>
       <c r="I162" t="n">
-        <v>1125</v>
+        <v>1074</v>
       </c>
       <c r="J162" t="n">
-        <v>1140</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Asian Life Insurance Co. Limited</t>
+          <t>Mountain Energy Nepal Limited</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1141</v>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>-2.89</v>
+        <v>1088.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.55</v>
       </c>
       <c r="E163" t="n">
-        <v>8095</v>
+        <v>4071</v>
       </c>
       <c r="F163" t="n">
-        <v>9217303.9</v>
+        <v>4282190.5</v>
       </c>
       <c r="G163" t="n">
-        <v>1152</v>
+        <v>1050</v>
       </c>
       <c r="H163" t="n">
-        <v>1156</v>
+        <v>1090</v>
       </c>
       <c r="I163" t="n">
-        <v>1130</v>
+        <v>1020</v>
       </c>
       <c r="J163" t="n">
-        <v>1175</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kalika Microcredit Development Bank Ltd.</t>
+          <t>NIC ASIA Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1198</v>
+        <v>1097</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>-1.05</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>2495</v>
+        <v>20819</v>
       </c>
       <c r="F164" t="n">
-        <v>2947251</v>
+        <v>21958618.1</v>
       </c>
       <c r="G164" t="n">
-        <v>1234.9</v>
+        <v>1076</v>
       </c>
       <c r="H164" t="n">
-        <v>1234.9</v>
+        <v>1097</v>
       </c>
       <c r="I164" t="n">
-        <v>1160</v>
+        <v>1038</v>
       </c>
       <c r="J164" t="n">
-        <v>1210.7</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Deprosc Laghubitta Bittiya Sanstha Limited</t>
+          <t>Asian Life Insurance Co. Limited</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1251</v>
+        <v>1115</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>-2.8</v>
+        <v>-2.28</v>
       </c>
       <c r="E165" t="n">
-        <v>11441</v>
+        <v>16552</v>
       </c>
       <c r="F165" t="n">
-        <v>14350760.8</v>
+        <v>18304338.7</v>
       </c>
       <c r="G165" t="n">
-        <v>1287</v>
+        <v>1119</v>
       </c>
       <c r="H165" t="n">
-        <v>1290</v>
+        <v>1128</v>
       </c>
       <c r="I165" t="n">
-        <v>1223</v>
+        <v>1096.7</v>
       </c>
       <c r="J165" t="n">
-        <v>1287</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Neco Insurance Co. Ltd.</t>
+          <t>SHIVAM CEMENTS LTD</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1252.6</v>
+        <v>1210</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>-2.75</v>
+        <v>-4.87</v>
       </c>
       <c r="E166" t="n">
-        <v>12772</v>
+        <v>36395</v>
       </c>
       <c r="F166" t="n">
-        <v>16085865.7</v>
+        <v>44135091.4</v>
       </c>
       <c r="G166" t="n">
-        <v>1290</v>
+        <v>1250</v>
       </c>
       <c r="H166" t="n">
-        <v>1290</v>
+        <v>1270</v>
       </c>
       <c r="I166" t="n">
-        <v>1250</v>
+        <v>1195</v>
       </c>
       <c r="J166" t="n">
-        <v>1288</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nepal Reinsurance Company Limited</t>
+          <t>Deprosc Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1266</v>
+        <v>1212.1</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>-1.78</v>
+        <v>-3.11</v>
       </c>
       <c r="E167" t="n">
-        <v>32793</v>
+        <v>15785</v>
       </c>
       <c r="F167" t="n">
-        <v>41481442.6</v>
+        <v>18932099.6</v>
       </c>
       <c r="G167" t="n">
-        <v>1286</v>
+        <v>1226.1</v>
       </c>
       <c r="H167" t="n">
-        <v>1286</v>
+        <v>1226.1</v>
       </c>
       <c r="I167" t="n">
-        <v>1250.2</v>
+        <v>1185</v>
       </c>
       <c r="J167" t="n">
-        <v>1289</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sagarmatha Insurance Co. Ltd.</t>
+          <t>Neco Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1266.2</v>
+        <v>1215</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>-2.22</v>
+        <v>-3</v>
       </c>
       <c r="E168" t="n">
-        <v>5221</v>
+        <v>17338</v>
       </c>
       <c r="F168" t="n">
-        <v>6722662.1</v>
+        <v>21012504</v>
       </c>
       <c r="G168" t="n">
-        <v>1290</v>
+        <v>1249</v>
       </c>
       <c r="H168" t="n">
-        <v>1300</v>
+        <v>1252.6</v>
       </c>
       <c r="I168" t="n">
-        <v>1266.1</v>
+        <v>1200</v>
       </c>
       <c r="J168" t="n">
-        <v>1295</v>
+        <v>1252.6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SHIVAM CEMENTS LTD</t>
+          <t>Nepal Reinsurance Company Limited</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1272</v>
+        <v>1218</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>-3.93</v>
+        <v>-3.79</v>
       </c>
       <c r="E169" t="n">
-        <v>18290</v>
+        <v>51945</v>
       </c>
       <c r="F169" t="n">
-        <v>23455543.5</v>
+        <v>63396022.8</v>
       </c>
       <c r="G169" t="n">
-        <v>1324</v>
+        <v>1245.3</v>
       </c>
       <c r="H169" t="n">
-        <v>1324</v>
+        <v>1247</v>
       </c>
       <c r="I169" t="n">
-        <v>1265</v>
+        <v>1203.5</v>
       </c>
       <c r="J169" t="n">
-        <v>1324</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NMB Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Kalika Microcredit Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1300</v>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>-5.11</v>
+        <v>1219</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.75</v>
       </c>
       <c r="E170" t="n">
-        <v>3374</v>
+        <v>4605</v>
       </c>
       <c r="F170" t="n">
-        <v>4444882.2</v>
+        <v>5245221</v>
       </c>
       <c r="G170" t="n">
-        <v>1384.5</v>
+        <v>1219</v>
       </c>
       <c r="H170" t="n">
-        <v>1384.5</v>
+        <v>1219</v>
       </c>
       <c r="I170" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="J170" t="n">
-        <v>1370</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Chandragiri Hills Limited</t>
+          <t>Sagarmatha Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1300</v>
+        <v>1225</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>-3.7</v>
+        <v>-3.25</v>
       </c>
       <c r="E171" t="n">
-        <v>3418</v>
+        <v>3698</v>
       </c>
       <c r="F171" t="n">
-        <v>4476432.5</v>
+        <v>4641778</v>
       </c>
       <c r="G171" t="n">
-        <v>1330</v>
+        <v>1266.2</v>
       </c>
       <c r="H171" t="n">
-        <v>1330</v>
+        <v>1267</v>
       </c>
       <c r="I171" t="n">
-        <v>1300</v>
+        <v>1225</v>
       </c>
       <c r="J171" t="n">
-        <v>1350</v>
+        <v>1266.2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Civil Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Samudayik Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1310</v>
+        <v>1245</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>-2.32</v>
+        <v>-6.04</v>
       </c>
       <c r="E172" t="n">
-        <v>4094</v>
+        <v>620</v>
       </c>
       <c r="F172" t="n">
-        <v>5352021.4</v>
+        <v>782387.9</v>
       </c>
       <c r="G172" t="n">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="H172" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I172" t="n">
-        <v>1289</v>
+        <v>1245</v>
       </c>
       <c r="J172" t="n">
-        <v>1341.1</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Samudayik Laghubitta Bittiya Sanstha Limited</t>
+          <t>Chandragiri Hills Limited</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1325</v>
+        <v>1266</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>-2.57</v>
+        <v>-2.62</v>
       </c>
       <c r="E173" t="n">
-        <v>73</v>
+        <v>3691</v>
       </c>
       <c r="F173" t="n">
-        <v>97021.89999999999</v>
+        <v>4698192</v>
       </c>
       <c r="G173" t="n">
-        <v>1350</v>
+        <v>1282</v>
       </c>
       <c r="H173" t="n">
-        <v>1350</v>
+        <v>1288</v>
       </c>
       <c r="I173" t="n">
-        <v>1325</v>
+        <v>1262</v>
       </c>
       <c r="J173" t="n">
-        <v>1360</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nerude Laghubita Bikas Bank Limited</t>
+          <t>NMB Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1358.9</v>
+        <v>1267</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>-3.76</v>
+        <v>-2.54</v>
       </c>
       <c r="E174" t="n">
-        <v>8363</v>
+        <v>5204</v>
       </c>
       <c r="F174" t="n">
-        <v>11379788.5</v>
+        <v>6604457.2</v>
       </c>
       <c r="G174" t="n">
-        <v>1384</v>
+        <v>1280</v>
       </c>
       <c r="H174" t="n">
-        <v>1384</v>
+        <v>1300</v>
       </c>
       <c r="I174" t="n">
-        <v>1351</v>
+        <v>1242</v>
       </c>
       <c r="J174" t="n">
-        <v>1412</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Kisan Lagubitta Bittiya Sanstha Limited</t>
+          <t>Summit Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1369</v>
+        <v>1290</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>-7.19</v>
+        <v>-6.51</v>
       </c>
       <c r="E175" t="n">
-        <v>820</v>
+        <v>2115</v>
       </c>
       <c r="F175" t="n">
-        <v>1142198.8</v>
+        <v>2767794</v>
       </c>
       <c r="G175" t="n">
-        <v>1451</v>
+        <v>1352.4</v>
       </c>
       <c r="H175" t="n">
-        <v>1451</v>
+        <v>1352.4</v>
       </c>
       <c r="I175" t="n">
-        <v>1369</v>
+        <v>1262.1</v>
       </c>
       <c r="J175" t="n">
-        <v>1475</v>
+        <v>1379.9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Summit Laghubitta Bittiya Sanstha Limited</t>
+          <t>Civil Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1379.9</v>
+        <v>1295</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>-3.57</v>
+        <v>-1.15</v>
       </c>
       <c r="E176" t="n">
-        <v>1049</v>
+        <v>3768</v>
       </c>
       <c r="F176" t="n">
-        <v>1444003.5</v>
+        <v>4808952.3</v>
       </c>
       <c r="G176" t="n">
-        <v>1431</v>
+        <v>1284</v>
       </c>
       <c r="H176" t="n">
-        <v>1431</v>
+        <v>1323</v>
       </c>
       <c r="I176" t="n">
-        <v>1365</v>
+        <v>1260</v>
       </c>
       <c r="J176" t="n">
-        <v>1431</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Mero Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Kisan Lagubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>-0.71</v>
+        <v>-3.58</v>
       </c>
       <c r="E177" t="n">
-        <v>9879</v>
+        <v>378</v>
       </c>
       <c r="F177" t="n">
-        <v>13364335.9</v>
+        <v>505481.6</v>
       </c>
       <c r="G177" t="n">
-        <v>1389.9</v>
+        <v>1369</v>
       </c>
       <c r="H177" t="n">
-        <v>1389.9</v>
+        <v>1396</v>
       </c>
       <c r="I177" t="n">
-        <v>1338</v>
+        <v>1316.1</v>
       </c>
       <c r="J177" t="n">
-        <v>1389.9</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Naya Sarathi Laghubitta Bittiya Sanstha Limited</t>
+          <t>Nerude Laghubita Bikas Bank Limited</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1400</v>
+        <v>1326</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>-5.66</v>
+        <v>-2.42</v>
       </c>
       <c r="E178" t="n">
-        <v>956</v>
+        <v>10250</v>
       </c>
       <c r="F178" t="n">
-        <v>1352802</v>
+        <v>13474179.4</v>
       </c>
       <c r="G178" t="n">
-        <v>1454.5</v>
+        <v>1350</v>
       </c>
       <c r="H178" t="n">
-        <v>1480</v>
+        <v>1350</v>
       </c>
       <c r="I178" t="n">
-        <v>1398</v>
+        <v>1300</v>
       </c>
       <c r="J178" t="n">
-        <v>1484</v>
+        <v>1358.9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RMDC Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Naya Sarathi Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1440</v>
+        <v>1360</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>-3.68</v>
+        <v>-2.86</v>
       </c>
       <c r="E179" t="n">
-        <v>7714</v>
+        <v>5002</v>
       </c>
       <c r="F179" t="n">
-        <v>11194194</v>
+        <v>6618785.6</v>
       </c>
       <c r="G179" t="n">
-        <v>1466.1</v>
+        <v>1375</v>
       </c>
       <c r="H179" t="n">
-        <v>1480</v>
+        <v>1375</v>
       </c>
       <c r="I179" t="n">
-        <v>1438</v>
+        <v>1296.6</v>
       </c>
       <c r="J179" t="n">
-        <v>1495</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Aarambha Chautari Laghubitta Bittiya Sanstha Limited</t>
+          <t>Samata Gharelu Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1440</v>
+        <v>1375</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>-3.36</v>
+        <v>-5.17</v>
       </c>
       <c r="E180" t="n">
-        <v>1634</v>
+        <v>2428</v>
       </c>
       <c r="F180" t="n">
-        <v>2358438</v>
+        <v>3255059</v>
       </c>
       <c r="G180" t="n">
-        <v>1465.1</v>
+        <v>1421</v>
       </c>
       <c r="H180" t="n">
-        <v>1475</v>
+        <v>1421</v>
       </c>
       <c r="I180" t="n">
-        <v>1425</v>
+        <v>1310</v>
       </c>
       <c r="J180" t="n">
-        <v>1490</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nirdhan Utthan Laghubitta Bittiya Sanstha Limited</t>
+          <t>Aarambha Chautari Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1446</v>
+        <v>1375</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>-3.28</v>
+        <v>-4.51</v>
       </c>
       <c r="E181" t="n">
-        <v>12878</v>
+        <v>2773</v>
       </c>
       <c r="F181" t="n">
-        <v>18821526.5</v>
+        <v>3814206.6</v>
       </c>
       <c r="G181" t="n">
-        <v>1485</v>
+        <v>1415</v>
       </c>
       <c r="H181" t="n">
-        <v>1485</v>
+        <v>1418</v>
       </c>
       <c r="I181" t="n">
-        <v>1446</v>
+        <v>1360</v>
       </c>
       <c r="J181" t="n">
-        <v>1495</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Samata Gharelu Laghubitta Bittiya Sanstha Limited</t>
+          <t>RMDC Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1450</v>
+        <v>1392</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>-5.35</v>
+        <v>-3.33</v>
       </c>
       <c r="E182" t="n">
-        <v>1392</v>
+        <v>13484</v>
       </c>
       <c r="F182" t="n">
-        <v>2021251.5</v>
+        <v>18867692.5</v>
       </c>
       <c r="G182" t="n">
-        <v>1530</v>
+        <v>1445</v>
       </c>
       <c r="H182" t="n">
-        <v>1530</v>
+        <v>1445</v>
       </c>
       <c r="I182" t="n">
-        <v>1412</v>
+        <v>1389</v>
       </c>
       <c r="J182" t="n">
-        <v>1532</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ganapati Microfinance Bittiya Sanstha Limited</t>
+          <t>Nirdhan Utthan Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1456.4</v>
+        <v>1400</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>-3.87</v>
+        <v>-3.18</v>
       </c>
       <c r="E183" t="n">
-        <v>1102</v>
+        <v>19008</v>
       </c>
       <c r="F183" t="n">
-        <v>1622001.5</v>
+        <v>26573265</v>
       </c>
       <c r="G183" t="n">
-        <v>1486</v>
+        <v>1419</v>
       </c>
       <c r="H183" t="n">
-        <v>1487</v>
+        <v>1430</v>
       </c>
       <c r="I183" t="n">
-        <v>1436</v>
+        <v>1385</v>
       </c>
       <c r="J183" t="n">
-        <v>1515</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nabil Bank Limited</t>
+          <t>Mero Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1468</v>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>-0.9399999999999999</v>
+        <v>1407.6</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
       </c>
       <c r="E184" t="n">
-        <v>67707</v>
+        <v>14098</v>
       </c>
       <c r="F184" t="n">
-        <v>98998518.3</v>
+        <v>18681386.5</v>
       </c>
       <c r="G184" t="n">
-        <v>1482</v>
+        <v>1353</v>
       </c>
       <c r="H184" t="n">
-        <v>1482</v>
+        <v>1407.6</v>
       </c>
       <c r="I184" t="n">
-        <v>1448</v>
+        <v>1296</v>
       </c>
       <c r="J184" t="n">
-        <v>1482</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Mirmire Microfinance Development Bank Ltd.</t>
+          <t>Ganapati Microfinance Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1470</v>
+        <v>1412.1</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>-2.58</v>
+        <v>-3.04</v>
       </c>
       <c r="E185" t="n">
-        <v>2114</v>
+        <v>326</v>
       </c>
       <c r="F185" t="n">
-        <v>3140372.6</v>
+        <v>465486.4</v>
       </c>
       <c r="G185" t="n">
-        <v>1539</v>
+        <v>1436.1</v>
       </c>
       <c r="H185" t="n">
-        <v>1539</v>
+        <v>1436.1</v>
       </c>
       <c r="I185" t="n">
-        <v>1470</v>
+        <v>1412.1</v>
       </c>
       <c r="J185" t="n">
-        <v>1509</v>
+        <v>1456.4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Swarojgar Laghu Bitta Bikas Bank Ltd.</t>
+          <t>Nabil Bank Limited</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1520</v>
+        <v>1431</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>-2.25</v>
+        <v>-2.52</v>
       </c>
       <c r="E186" t="n">
-        <v>5804</v>
+        <v>77881</v>
       </c>
       <c r="F186" t="n">
-        <v>8881148.699999999</v>
+        <v>111382423</v>
       </c>
       <c r="G186" t="n">
-        <v>1555</v>
+        <v>1445</v>
       </c>
       <c r="H186" t="n">
-        <v>1555</v>
+        <v>1450</v>
       </c>
       <c r="I186" t="n">
-        <v>1510</v>
+        <v>1420.1</v>
       </c>
       <c r="J186" t="n">
-        <v>1555</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Gurans Laghubitta Bittiya Sanstha Limited</t>
+          <t>Mirmire Microfinance Development Bank Ltd.</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1544.8</v>
+        <v>1449</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>-0.3</v>
+        <v>-1.43</v>
       </c>
       <c r="E187" t="n">
-        <v>1895</v>
+        <v>2365</v>
       </c>
       <c r="F187" t="n">
-        <v>2929143.8</v>
+        <v>3406354.6</v>
       </c>
       <c r="G187" t="n">
-        <v>1570</v>
+        <v>1450</v>
       </c>
       <c r="H187" t="n">
-        <v>1570</v>
+        <v>1499</v>
       </c>
       <c r="I187" t="n">
-        <v>1536</v>
+        <v>1414</v>
       </c>
       <c r="J187" t="n">
-        <v>1549.4</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Vijaya laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Swarojgar Laghu Bitta Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1580</v>
+        <v>1489</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>-5.38</v>
+        <v>-2.04</v>
       </c>
       <c r="E188" t="n">
-        <v>1749</v>
+        <v>11691</v>
       </c>
       <c r="F188" t="n">
-        <v>2744250</v>
+        <v>17264114.4</v>
       </c>
       <c r="G188" t="n">
-        <v>1636.7</v>
+        <v>1491</v>
       </c>
       <c r="H188" t="n">
-        <v>1666.9</v>
+        <v>1500</v>
       </c>
       <c r="I188" t="n">
-        <v>1548</v>
+        <v>1456</v>
       </c>
       <c r="J188" t="n">
-        <v>1669.9</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Swabalamban Laghubitta Bittiya Sanstha Limited</t>
+          <t>Gurans Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1585</v>
+        <v>1498</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>-3.76</v>
+        <v>-3.03</v>
       </c>
       <c r="E189" t="n">
-        <v>11670</v>
+        <v>487</v>
       </c>
       <c r="F189" t="n">
-        <v>18669222.2</v>
+        <v>731349.8</v>
       </c>
       <c r="G189" t="n">
-        <v>1650</v>
+        <v>1540</v>
       </c>
       <c r="H189" t="n">
-        <v>1650</v>
+        <v>1540</v>
       </c>
       <c r="I189" t="n">
-        <v>1585</v>
+        <v>1463.1</v>
       </c>
       <c r="J189" t="n">
-        <v>1646.9</v>
+        <v>1544.8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Asha Laghubitta Bittiya Sanstha Ltd</t>
+          <t>Vijaya laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1644</v>
+        <v>1521</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>-2.2</v>
+        <v>-3.73</v>
       </c>
       <c r="E190" t="n">
-        <v>6121</v>
+        <v>4325</v>
       </c>
       <c r="F190" t="n">
-        <v>10310573.7</v>
+        <v>6493771</v>
       </c>
       <c r="G190" t="n">
-        <v>1714.6</v>
+        <v>1550</v>
       </c>
       <c r="H190" t="n">
-        <v>1760</v>
+        <v>1560</v>
       </c>
       <c r="I190" t="n">
-        <v>1644</v>
+        <v>1442</v>
       </c>
       <c r="J190" t="n">
-        <v>1681</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Infinity Laghubitta Bittiya Sanstha Limited</t>
+          <t>National Microfinance Bittiya Sanstha Ltd. Promoter</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1657</v>
+        <v>1537</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>-4.77</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>826</v>
+        <v>12780</v>
       </c>
       <c r="F191" t="n">
-        <v>1377621.4</v>
+        <v>19642860</v>
       </c>
       <c r="G191" t="n">
-        <v>1706</v>
+        <v>1537</v>
       </c>
       <c r="H191" t="n">
-        <v>1725</v>
+        <v>1537</v>
       </c>
       <c r="I191" t="n">
-        <v>1654</v>
+        <v>1537</v>
       </c>
       <c r="J191" t="n">
-        <v>1740</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nepal Life Insurance Co. Ltd.</t>
+          <t>Swabalamban Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1664</v>
+        <v>1540</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>-1.83</v>
+        <v>-2.84</v>
       </c>
       <c r="E192" t="n">
-        <v>30731</v>
+        <v>9993</v>
       </c>
       <c r="F192" t="n">
-        <v>51415646</v>
+        <v>15351553.9</v>
       </c>
       <c r="G192" t="n">
-        <v>1690</v>
+        <v>1580</v>
       </c>
       <c r="H192" t="n">
-        <v>1700</v>
+        <v>1580</v>
       </c>
       <c r="I192" t="n">
-        <v>1660</v>
+        <v>1520</v>
       </c>
       <c r="J192" t="n">
-        <v>1695</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Shikhar Insurance Co. Ltd.</t>
+          <t>Nepal Life Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1689</v>
+        <v>1606</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>-2.37</v>
+        <v>-3.49</v>
       </c>
       <c r="E193" t="n">
-        <v>9963</v>
+        <v>30571</v>
       </c>
       <c r="F193" t="n">
-        <v>16856708.5</v>
+        <v>49258157.9</v>
       </c>
       <c r="G193" t="n">
-        <v>1700</v>
+        <v>1655</v>
       </c>
       <c r="H193" t="n">
-        <v>1720</v>
+        <v>1655</v>
       </c>
       <c r="I193" t="n">
-        <v>1670</v>
+        <v>1590</v>
       </c>
       <c r="J193" t="n">
-        <v>1730</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chhimek Laghubitta Bikas Bank Limited</t>
+          <t>Infinity Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1700</v>
+        <v>1618.1</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>-3.95</v>
+        <v>-2.35</v>
       </c>
       <c r="E194" t="n">
-        <v>29620</v>
+        <v>2714</v>
       </c>
       <c r="F194" t="n">
-        <v>50670236.3</v>
+        <v>4329469.7</v>
       </c>
       <c r="G194" t="n">
-        <v>1750</v>
+        <v>1624</v>
       </c>
       <c r="H194" t="n">
-        <v>1765</v>
+        <v>1624</v>
       </c>
       <c r="I194" t="n">
-        <v>1690</v>
+        <v>1572</v>
       </c>
       <c r="J194" t="n">
-        <v>1770</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sana Kisan Bikas Bank Ltd</t>
+          <t>Asha Laghubitta Bittiya Sanstha Ltd</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1736.9</v>
+        <v>1625.2</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>-2.09</v>
+        <v>-1.14</v>
       </c>
       <c r="E195" t="n">
-        <v>12933</v>
+        <v>3053</v>
       </c>
       <c r="F195" t="n">
-        <v>22250681</v>
+        <v>5007040.2</v>
       </c>
       <c r="G195" t="n">
-        <v>1795</v>
+        <v>1660</v>
       </c>
       <c r="H195" t="n">
-        <v>1795</v>
+        <v>1680</v>
       </c>
       <c r="I195" t="n">
-        <v>1700</v>
+        <v>1613</v>
       </c>
       <c r="J195" t="n">
-        <v>1773.9</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Laxmi Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Shikhar Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1752</v>
+        <v>1635</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>-5.3</v>
+        <v>-3.2</v>
       </c>
       <c r="E196" t="n">
-        <v>3545</v>
+        <v>16446</v>
       </c>
       <c r="F196" t="n">
-        <v>6281006</v>
+        <v>26841940.2</v>
       </c>
       <c r="G196" t="n">
-        <v>1850</v>
+        <v>1656</v>
       </c>
       <c r="H196" t="n">
-        <v>1850</v>
+        <v>1660</v>
       </c>
       <c r="I196" t="n">
-        <v>1748.1</v>
+        <v>1615</v>
       </c>
       <c r="J196" t="n">
-        <v>1850</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sadhana Laghubitta Bittiya Sanstha Limited</t>
+          <t>Chhimek Laghubitta Bikas Bank Limited</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1780</v>
+        <v>1644</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>-3.05</v>
+        <v>-3.29</v>
       </c>
       <c r="E197" t="n">
-        <v>3818</v>
+        <v>25618</v>
       </c>
       <c r="F197" t="n">
-        <v>6844787.6</v>
+        <v>41982847.5</v>
       </c>
       <c r="G197" t="n">
-        <v>1871</v>
+        <v>1675.1</v>
       </c>
       <c r="H197" t="n">
-        <v>1871</v>
+        <v>1675.1</v>
       </c>
       <c r="I197" t="n">
-        <v>1762</v>
+        <v>1620</v>
       </c>
       <c r="J197" t="n">
-        <v>1836</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Manakamana Smart Laghubitta Bittiya Sanstha Limited</t>
+          <t>Sana Kisan Bikas Bank Ltd</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1789</v>
+        <v>1670</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>-3.35</v>
+        <v>-3.85</v>
       </c>
       <c r="E198" t="n">
-        <v>2495</v>
+        <v>14175</v>
       </c>
       <c r="F198" t="n">
-        <v>4508568.5</v>
+        <v>23729794.9</v>
       </c>
       <c r="G198" t="n">
-        <v>1820</v>
+        <v>1705</v>
       </c>
       <c r="H198" t="n">
-        <v>1850</v>
+        <v>1705</v>
       </c>
       <c r="I198" t="n">
-        <v>1780</v>
+        <v>1666</v>
       </c>
       <c r="J198" t="n">
-        <v>1851</v>
+        <v>1736.9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Mahuli Samudayik Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Manakamana Smart Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1837.5</v>
+        <v>1675.5</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>-5.77</v>
+        <v>-6.34</v>
       </c>
       <c r="E199" t="n">
-        <v>500</v>
+        <v>5517</v>
       </c>
       <c r="F199" t="n">
-        <v>944624</v>
+        <v>9283684</v>
       </c>
       <c r="G199" t="n">
-        <v>1989</v>
+        <v>1754</v>
       </c>
       <c r="H199" t="n">
-        <v>1989</v>
+        <v>1777</v>
       </c>
       <c r="I199" t="n">
-        <v>1837.5</v>
+        <v>1642</v>
       </c>
       <c r="J199" t="n">
-        <v>1950</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mithila LaghuBitta Bittiya Sanstha Limited</t>
+          <t>Laxmi Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1924</v>
+        <v>1740</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>-5.31</v>
+        <v>-0.68</v>
       </c>
       <c r="E200" t="n">
-        <v>1392</v>
+        <v>1937</v>
       </c>
       <c r="F200" t="n">
-        <v>2665682</v>
+        <v>3335897.5</v>
       </c>
       <c r="G200" t="n">
-        <v>1992</v>
+        <v>1752</v>
       </c>
       <c r="H200" t="n">
-        <v>2000</v>
+        <v>1752</v>
       </c>
       <c r="I200" t="n">
-        <v>1877</v>
+        <v>1701</v>
       </c>
       <c r="J200" t="n">
-        <v>2032</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Life Insurance Co. Nepal</t>
+          <t>Sadhana Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1938</v>
+        <v>1769</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>-3.44</v>
+        <v>-0.62</v>
       </c>
       <c r="E201" t="n">
-        <v>6788</v>
+        <v>26030</v>
       </c>
       <c r="F201" t="n">
-        <v>12975830.5</v>
+        <v>46156199.4</v>
       </c>
       <c r="G201" t="n">
-        <v>1968</v>
+        <v>1785</v>
       </c>
       <c r="H201" t="n">
-        <v>1968</v>
+        <v>1815</v>
       </c>
       <c r="I201" t="n">
-        <v>1880</v>
+        <v>1744.4</v>
       </c>
       <c r="J201" t="n">
-        <v>2007</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SABAIKO LAGHUBITTA BITTIYA SANSTHA LIMITED</t>
+          <t>Life Insurance Co. Nepal</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1997</v>
+        <v>1912</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>-4.81</v>
+        <v>-1.34</v>
       </c>
       <c r="E202" t="n">
-        <v>8638</v>
+        <v>7378</v>
       </c>
       <c r="F202" t="n">
-        <v>17513076.8</v>
+        <v>13783967.7</v>
       </c>
       <c r="G202" t="n">
-        <v>2080</v>
+        <v>1899.3</v>
       </c>
       <c r="H202" t="n">
-        <v>2100</v>
+        <v>1912</v>
       </c>
       <c r="I202" t="n">
-        <v>1988</v>
+        <v>1842.4</v>
       </c>
       <c r="J202" t="n">
-        <v>2098</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Unnati Sahakarya Laghubitta Bittiya Sanstha Limited</t>
+          <t>Mahuli Samudayik Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2044</v>
-      </c>
-      <c r="D203" s="2" t="n">
-        <v>-1.64</v>
+        <v>1920</v>
+      </c>
+      <c r="D203" t="n">
+        <v>4.49</v>
       </c>
       <c r="E203" t="n">
-        <v>165</v>
+        <v>1123</v>
       </c>
       <c r="F203" t="n">
-        <v>332368.5</v>
+        <v>2106149.4</v>
       </c>
       <c r="G203" t="n">
-        <v>2037</v>
+        <v>1850</v>
       </c>
       <c r="H203" t="n">
-        <v>2070.9</v>
+        <v>1929.8</v>
       </c>
       <c r="I203" t="n">
-        <v>1975</v>
+        <v>1840</v>
       </c>
       <c r="J203" t="n">
-        <v>2078</v>
+        <v>1837.5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Global IME Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>SABAIKO LAGHUBITTA BITTIYA SANSTHA LIMITED</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2143</v>
+        <v>1927</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>-5.39</v>
+        <v>-3.51</v>
       </c>
       <c r="E204" t="n">
-        <v>4684</v>
+        <v>5686</v>
       </c>
       <c r="F204" t="n">
-        <v>10288725</v>
+        <v>10893758.1</v>
       </c>
       <c r="G204" t="n">
-        <v>2270</v>
+        <v>1957.1</v>
       </c>
       <c r="H204" t="n">
-        <v>2270</v>
+        <v>1957.1</v>
       </c>
       <c r="I204" t="n">
-        <v>2137</v>
+        <v>1868</v>
       </c>
       <c r="J204" t="n">
-        <v>2265</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Support Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Unnati Sahakarya Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2550</v>
+        <v>1930</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>-5.56</v>
+        <v>-5.58</v>
       </c>
       <c r="E205" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F205" t="n">
-        <v>725792.6</v>
+        <v>541640.8</v>
       </c>
       <c r="G205" t="n">
-        <v>2651</v>
+        <v>2003.2</v>
       </c>
       <c r="H205" t="n">
-        <v>2651</v>
+        <v>2003.2</v>
       </c>
       <c r="I205" t="n">
-        <v>2505.1</v>
+        <v>1850</v>
       </c>
       <c r="J205" t="n">
-        <v>2700</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Swabhimaan Laghubitta Bittiya Sanstha Limited</t>
+          <t>Mithila LaghuBitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2615</v>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>-3.68</v>
+        <v>1948</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.25</v>
       </c>
       <c r="E206" t="n">
-        <v>1504</v>
+        <v>4329</v>
       </c>
       <c r="F206" t="n">
-        <v>3953022</v>
+        <v>8249768</v>
       </c>
       <c r="G206" t="n">
-        <v>2715</v>
+        <v>1924</v>
       </c>
       <c r="H206" t="n">
-        <v>2715</v>
+        <v>2015</v>
       </c>
       <c r="I206" t="n">
-        <v>2600</v>
+        <v>1848.1</v>
       </c>
       <c r="J206" t="n">
-        <v>2715</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Forward Community Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Global IME Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2730</v>
+        <v>2080</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>-4.28</v>
+        <v>-2.94</v>
       </c>
       <c r="E207" t="n">
-        <v>5242</v>
+        <v>3231</v>
       </c>
       <c r="F207" t="n">
-        <v>14423509.3</v>
+        <v>6727228.7</v>
       </c>
       <c r="G207" t="n">
-        <v>2852</v>
+        <v>2112</v>
       </c>
       <c r="H207" t="n">
-        <v>2852</v>
+        <v>2141</v>
       </c>
       <c r="I207" t="n">
-        <v>2724.4</v>
+        <v>2031</v>
       </c>
       <c r="J207" t="n">
-        <v>2852</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>National Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Support Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2840</v>
+        <v>2538</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>-4.15</v>
+        <v>-0.47</v>
       </c>
       <c r="E208" t="n">
-        <v>4227</v>
+        <v>298</v>
       </c>
       <c r="F208" t="n">
-        <v>12099869.8</v>
+        <v>723460</v>
       </c>
       <c r="G208" t="n">
-        <v>2910</v>
+        <v>2499</v>
       </c>
       <c r="H208" t="n">
-        <v>2910</v>
+        <v>2538</v>
       </c>
       <c r="I208" t="n">
-        <v>2791</v>
+        <v>2362</v>
       </c>
       <c r="J208" t="n">
-        <v>2963</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Janautthan Samudayic Laghubitta Bikas Bank Ltd.</t>
+          <t>Swabhimaan Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3280</v>
+        <v>2608</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>-4.09</v>
+        <v>-0.27</v>
       </c>
       <c r="E209" t="n">
-        <v>1924</v>
+        <v>1071</v>
       </c>
       <c r="F209" t="n">
-        <v>6345002</v>
+        <v>2678566.5</v>
       </c>
       <c r="G209" t="n">
-        <v>3354</v>
+        <v>2563</v>
       </c>
       <c r="H209" t="n">
-        <v>3354</v>
+        <v>2608</v>
       </c>
       <c r="I209" t="n">
-        <v>3280</v>
+        <v>2475</v>
       </c>
       <c r="J209" t="n">
-        <v>3420</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Citizen Investment Trust</t>
+          <t>Forward Community Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3300</v>
+        <v>2650</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>-2.14</v>
+        <v>-2.93</v>
       </c>
       <c r="E210" t="n">
-        <v>9327</v>
+        <v>8341</v>
       </c>
       <c r="F210" t="n">
-        <v>30807587.3</v>
+        <v>21934758</v>
       </c>
       <c r="G210" t="n">
-        <v>3307.5</v>
+        <v>2700</v>
       </c>
       <c r="H210" t="n">
-        <v>3350</v>
+        <v>2700</v>
       </c>
       <c r="I210" t="n">
-        <v>3290</v>
+        <v>2600</v>
       </c>
       <c r="J210" t="n">
-        <v>3372</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jeevan Bikas laghubitta bittya sanstha ltd</t>
+          <t>National Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>4390</v>
+        <v>2750</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>-4.88</v>
+        <v>-3.17</v>
       </c>
       <c r="E211" t="n">
-        <v>14859</v>
+        <v>4121</v>
       </c>
       <c r="F211" t="n">
-        <v>66180938</v>
+        <v>11323040</v>
       </c>
       <c r="G211" t="n">
-        <v>4707.3</v>
+        <v>2896</v>
       </c>
       <c r="H211" t="n">
-        <v>4707.3</v>
+        <v>2896</v>
       </c>
       <c r="I211" t="n">
-        <v>4350</v>
+        <v>2695</v>
       </c>
       <c r="J211" t="n">
-        <v>4615</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mahila Lagubitta Bittiya Sanstha Limited</t>
+          <t>Janautthan Samudayic Laghubitta Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>4951</v>
+        <v>3167</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>-4.81</v>
+        <v>-3.45</v>
       </c>
       <c r="E212" t="n">
-        <v>4254</v>
+        <v>658</v>
       </c>
       <c r="F212" t="n">
-        <v>21380990</v>
+        <v>2090113.4</v>
       </c>
       <c r="G212" t="n">
-        <v>5101</v>
+        <v>3214.5</v>
       </c>
       <c r="H212" t="n">
-        <v>5178.9</v>
+        <v>3280</v>
       </c>
       <c r="I212" t="n">
-        <v>4949.1</v>
+        <v>3105</v>
       </c>
       <c r="J212" t="n">
-        <v>5201</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Bishal Bazar Company Limited</t>
+          <t>Citizen Investment Trust</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5150</v>
+        <v>3230</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>-1.9</v>
+        <v>-2.12</v>
       </c>
       <c r="E213" t="n">
-        <v>165</v>
+        <v>8873</v>
       </c>
       <c r="F213" t="n">
-        <v>851716</v>
+        <v>28526205</v>
       </c>
       <c r="G213" t="n">
-        <v>5200</v>
+        <v>3251</v>
       </c>
       <c r="H213" t="n">
-        <v>5200</v>
+        <v>3265</v>
       </c>
       <c r="I213" t="n">
-        <v>5145</v>
+        <v>3200</v>
       </c>
       <c r="J213" t="n">
-        <v>5250</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Himalayan Distillery Limited</t>
+          <t>Jeevan Bikas laghubitta bittya sanstha ltd</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6685</v>
+        <v>4230</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>-3.1</v>
+        <v>-3.64</v>
       </c>
       <c r="E214" t="n">
-        <v>14344</v>
+        <v>15380</v>
       </c>
       <c r="F214" t="n">
-        <v>96534056.5</v>
+        <v>65141666.6</v>
       </c>
       <c r="G214" t="n">
-        <v>6770</v>
+        <v>4302.2</v>
       </c>
       <c r="H214" t="n">
-        <v>6868</v>
+        <v>4304</v>
       </c>
       <c r="I214" t="n">
-        <v>6670</v>
+        <v>4159</v>
       </c>
       <c r="J214" t="n">
-        <v>6899</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Salt Trading Corporation</t>
+          <t>Mahila Lagubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>7889</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1.06</v>
+        <v>4830.2</v>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>-2.44</v>
       </c>
       <c r="E215" t="n">
-        <v>2999</v>
+        <v>3343</v>
       </c>
       <c r="F215" t="n">
-        <v>23541399</v>
+        <v>16149864.5</v>
       </c>
       <c r="G215" t="n">
-        <v>7934</v>
+        <v>4901</v>
       </c>
       <c r="H215" t="n">
-        <v>7935</v>
+        <v>4901</v>
       </c>
       <c r="I215" t="n">
-        <v>7780</v>
+        <v>4793</v>
       </c>
       <c r="J215" t="n">
-        <v>7806</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Bottlers Nepal (Terai) Limited</t>
+          <t>Bishal Bazar Company Limited</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>9850</v>
+        <v>5000</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>-1.86</v>
+        <v>-2.91</v>
       </c>
       <c r="E216" t="n">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="F216" t="n">
-        <v>4350357</v>
+        <v>5498448.1</v>
       </c>
       <c r="G216" t="n">
-        <v>10237.7</v>
+        <v>5065</v>
       </c>
       <c r="H216" t="n">
-        <v>10237.7</v>
+        <v>5065</v>
       </c>
       <c r="I216" t="n">
-        <v>9850</v>
+        <v>4960</v>
       </c>
       <c r="J216" t="n">
-        <v>10037</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Rastriya Beema Company Limited Promoter Share</t>
+          <t>Salt Trading Corporation</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>13136</v>
+        <v>6475</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>-2.64</v>
+        <v>-1.51</v>
       </c>
       <c r="E217" t="n">
-        <v>360</v>
+        <v>1426</v>
       </c>
       <c r="F217" t="n">
-        <v>4749970</v>
+        <v>9355807</v>
       </c>
       <c r="G217" t="n">
-        <v>13310</v>
+        <v>6705.6</v>
       </c>
       <c r="H217" t="n">
-        <v>13310</v>
+        <v>6705.6</v>
       </c>
       <c r="I217" t="n">
-        <v>13100</v>
+        <v>6300</v>
       </c>
       <c r="J217" t="n">
-        <v>13492</v>
+        <v>6574.17</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Rastriya Beema Company Limited</t>
+          <t>Himalayan Distillery Limited</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>17136</v>
+        <v>6525</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>-2.86</v>
+        <v>-2.39</v>
       </c>
       <c r="E218" t="n">
-        <v>160</v>
+        <v>13964</v>
       </c>
       <c r="F218" t="n">
-        <v>2751240</v>
+        <v>91150411.5</v>
       </c>
       <c r="G218" t="n">
-        <v>17400</v>
+        <v>6585</v>
       </c>
       <c r="H218" t="n">
-        <v>17400</v>
+        <v>6630</v>
       </c>
       <c r="I218" t="n">
-        <v>17055</v>
+        <v>6480</v>
       </c>
       <c r="J218" t="n">
-        <v>17640</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>Bottlers Nepal (Terai) Limited</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>9890</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E219" t="n">
+        <v>50</v>
+      </c>
+      <c r="F219" t="n">
+        <v>500729</v>
+      </c>
+      <c r="G219" t="n">
+        <v>10047</v>
+      </c>
+      <c r="H219" t="n">
+        <v>10247.9</v>
+      </c>
+      <c r="I219" t="n">
+        <v>9845</v>
+      </c>
+      <c r="J219" t="n">
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Rastriya Beema Company Limited Promoter Share</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>13100</v>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E220" t="n">
+        <v>505</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6581410</v>
+      </c>
+      <c r="G220" t="n">
+        <v>13005</v>
+      </c>
+      <c r="H220" t="n">
+        <v>13158</v>
+      </c>
+      <c r="I220" t="n">
+        <v>12900</v>
+      </c>
+      <c r="J220" t="n">
+        <v>13136</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Rastriya Beema Company Limited</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>16997</v>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E221" t="n">
+        <v>520</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8730024</v>
+      </c>
+      <c r="G221" t="n">
+        <v>16800</v>
+      </c>
+      <c r="H221" t="n">
+        <v>17050</v>
+      </c>
+      <c r="I221" t="n">
+        <v>16710</v>
+      </c>
+      <c r="J221" t="n">
+        <v>17136</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>Unilever Nepal Limited</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="C222" t="n">
+        <v>18798</v>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="E222" t="n">
+        <v>50</v>
+      </c>
+      <c r="F222" t="n">
+        <v>934180</v>
+      </c>
+      <c r="G222" t="n">
+        <v>18650</v>
+      </c>
+      <c r="H222" t="n">
+        <v>18798</v>
+      </c>
+      <c r="I222" t="n">
+        <v>18620</v>
+      </c>
+      <c r="J222" t="n">
         <v>18999</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E219" t="n">
-        <v>30</v>
-      </c>
-      <c r="F219" t="n">
-        <v>563490</v>
-      </c>
-      <c r="G219" t="n">
-        <v>18650</v>
-      </c>
-      <c r="H219" t="n">
-        <v>18999</v>
-      </c>
-      <c r="I219" t="n">
-        <v>18650</v>
-      </c>
-      <c r="J219" t="n">
-        <v>18914</v>
       </c>
     </row>
   </sheetData>

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10.25% NIC Asia Debenture 2083/84</t>
+          <t>10.25% Prabhu Bank Debenture 2086</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10.25% Prabhu Bank Debenture 2086</t>
+          <t>10.25% NIC Asia Debenture 2083/84</t>
         </is>
       </c>
       <c r="C161" t="n">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>10.25% Prabhu Bank Debenture 2086</t>
+          <t>10.25% NIC Asia Debenture 2083/84</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10.25% NIC Asia Debenture 2083/84</t>
+          <t>10.25% Prabhu Bank Debenture 2086</t>
         </is>
       </c>
       <c r="C161" t="n">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -6180,14 +6180,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10 % NMB DEBENTURE 2085</t>
+          <t>10.5 % NEPAL INVESTMENT DEBENTURE 2082</t>
         </is>
       </c>
       <c r="C169" t="n">
         <v>1025</v>
       </c>
-      <c r="D169" s="2" t="n">
-        <v>0</v>
+      <c r="D169" t="n">
+        <v>0.99</v>
       </c>
       <c r="E169" t="n">
         <v>25</v>
@@ -6205,7 +6205,7 @@
         <v>1025</v>
       </c>
       <c r="J169" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="170">
@@ -6214,14 +6214,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10.5 % NEPAL INVESTMENT DEBENTURE 2082</t>
+          <t>10 % NMB DEBENTURE 2085</t>
         </is>
       </c>
       <c r="C170" t="n">
         <v>1025</v>
       </c>
-      <c r="D170" t="n">
-        <v>0.99</v>
+      <c r="D170" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E170" t="n">
         <v>25</v>
@@ -6239,7 +6239,7 @@
         <v>1025</v>
       </c>
       <c r="J170" t="n">
-        <v>1015</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="171">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -6112,14 +6112,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>10% Prabhu Bank Debenture 2084</t>
+          <t>10.5 % NEPAL INVESTMENT DEBENTURE 2082</t>
         </is>
       </c>
       <c r="C167" t="n">
         <v>1025</v>
       </c>
-      <c r="D167" t="n">
-        <v>0.29</v>
+      <c r="D167" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E167" t="n">
         <v>25</v>
@@ -6137,7 +6137,7 @@
         <v>1025</v>
       </c>
       <c r="J167" t="n">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="168">
@@ -6146,14 +6146,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10.5 % NEPAL INVESTMENT DEBENTURE 2082</t>
+          <t>10% Prabhu Bank Debenture 2084</t>
         </is>
       </c>
       <c r="C168" t="n">
         <v>1025</v>
       </c>
-      <c r="D168" s="2" t="n">
-        <v>0</v>
+      <c r="D168" t="n">
+        <v>0.29</v>
       </c>
       <c r="E168" t="n">
         <v>25</v>
@@ -6171,7 +6171,7 @@
         <v>1025</v>
       </c>
       <c r="J168" t="n">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="169">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10.25% GLOBAL IME BANK LTD. DEBENTURE 2080/81</t>
+          <t>10 % NMB DEBENTURE 2085</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10 % NMB DEBENTURE 2085</t>
+          <t>10.25% GLOBAL IME BANK LTD. DEBENTURE 2080/81</t>
         </is>
       </c>
       <c r="C169" t="n">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -6146,7 +6146,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10 % NMB DEBENTURE 2085</t>
+          <t>10.25% GLOBAL IME BANK LTD. DEBENTURE 2080/81</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10.25% GLOBAL IME BANK LTD. DEBENTURE 2080/81</t>
+          <t>10 % NMB DEBENTURE 2085</t>
         </is>
       </c>
       <c r="C169" t="n">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -5908,14 +5908,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10% Nepal SBI Bank Debenture 2086</t>
+          <t>10.25% GLOBAL IME BANK LTD. DEBENTURE 2080/81</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>1000</v>
       </c>
-      <c r="D161" s="2" t="n">
-        <v>0</v>
+      <c r="D161" t="n">
+        <v>0.7</v>
       </c>
       <c r="E161" t="n">
         <v>25</v>
@@ -5933,7 +5933,7 @@
         <v>1000</v>
       </c>
       <c r="J161" t="n">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="162">
@@ -5976,14 +5976,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>10.25% GLOBAL IME BANK LTD. DEBENTURE 2080/81</t>
+          <t>10% Nepal SBI Bank Debenture 2086</t>
         </is>
       </c>
       <c r="C163" t="n">
         <v>1000</v>
       </c>
-      <c r="D163" t="n">
-        <v>0.7</v>
+      <c r="D163" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="E163" t="n">
         <v>25</v>
@@ -6001,7 +6001,7 @@
         <v>1000</v>
       </c>
       <c r="J163" t="n">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="164">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4510,27 +4510,27 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pokhara Finance Ltd.</t>
+          <t>Sahas Urja Limited</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>620</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>7.08</v>
       </c>
       <c r="E120" t="n">
-        <v>104480</v>
+        <v>54130</v>
       </c>
       <c r="F120" t="n">
-        <v>63619281.3</v>
+        <v>33064320</v>
       </c>
       <c r="G120" t="n">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H120" t="n">
         <v>620</v>
@@ -4539,32 +4539,32 @@
         <v>590</v>
       </c>
       <c r="J120" t="n">
-        <v>584.9</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sahas Urja Limited</t>
+          <t>Pokhara Finance Ltd.</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>620</v>
       </c>
       <c r="D121" t="n">
-        <v>7.08</v>
+        <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>54130</v>
+        <v>104480</v>
       </c>
       <c r="F121" t="n">
-        <v>33064320</v>
+        <v>63619281.3</v>
       </c>
       <c r="G121" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H121" t="n">
         <v>620</v>
@@ -4573,7 +4573,7 @@
         <v>590</v>
       </c>
       <c r="J121" t="n">
-        <v>579</v>
+        <v>584.9</v>
       </c>
     </row>
     <row r="122">
@@ -5632,7 +5632,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6312,70 +6312,70 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Swarojgar Laghu Bitta Bikas Bank Ltd.</t>
+          <t>Civil Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C173" t="n">
         <v>1170</v>
       </c>
       <c r="D173" t="n">
-        <v>5.69</v>
+        <v>4.28</v>
       </c>
       <c r="E173" t="n">
-        <v>5943</v>
+        <v>3478</v>
       </c>
       <c r="F173" t="n">
-        <v>6855316.6</v>
+        <v>4006762.7</v>
       </c>
       <c r="G173" t="n">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="H173" t="n">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="I173" t="n">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="J173" t="n">
-        <v>1107</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Civil Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Swarojgar Laghu Bitta Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>1170</v>
       </c>
       <c r="D174" t="n">
-        <v>4.28</v>
+        <v>5.69</v>
       </c>
       <c r="E174" t="n">
-        <v>3478</v>
+        <v>5943</v>
       </c>
       <c r="F174" t="n">
-        <v>4006762.7</v>
+        <v>6855316.6</v>
       </c>
       <c r="G174" t="n">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="H174" t="n">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="I174" t="n">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="J174" t="n">
-        <v>1122</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="175">
@@ -6550,7 +6550,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -7502,851 +7502,885 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Laxmi Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Manushi Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="D208" t="n">
-        <v>1.27</v>
+        <v>6.68</v>
       </c>
       <c r="E208" t="n">
-        <v>940</v>
+        <v>2751</v>
       </c>
       <c r="F208" t="n">
-        <v>1496208.9</v>
+        <v>4228525</v>
       </c>
       <c r="G208" t="n">
-        <v>1611</v>
+        <v>1482</v>
       </c>
       <c r="H208" t="n">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="I208" t="n">
-        <v>1580</v>
+        <v>1482</v>
       </c>
       <c r="J208" t="n">
-        <v>1579.9</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mahuli Samudayik Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Laxmi Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="D209" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="E209" t="n">
-        <v>871</v>
+        <v>940</v>
       </c>
       <c r="F209" t="n">
-        <v>1400154.5</v>
+        <v>1496208.9</v>
       </c>
       <c r="G209" t="n">
-        <v>1615.6</v>
+        <v>1611</v>
       </c>
       <c r="H209" t="n">
-        <v>1630</v>
+        <v>1611</v>
       </c>
       <c r="I209" t="n">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="J209" t="n">
-        <v>1584</v>
+        <v>1579.9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Asha Laghubitta Bittiya Sanstha Ltd</t>
+          <t>Mahuli Samudayik Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="D210" t="n">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="E210" t="n">
-        <v>5022</v>
+        <v>871</v>
       </c>
       <c r="F210" t="n">
-        <v>8106440.3</v>
+        <v>1400154.5</v>
       </c>
       <c r="G210" t="n">
-        <v>1616</v>
+        <v>1615.6</v>
       </c>
       <c r="H210" t="n">
-        <v>1650</v>
+        <v>1630</v>
       </c>
       <c r="I210" t="n">
-        <v>1600</v>
+        <v>1570</v>
       </c>
       <c r="J210" t="n">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Unnati Sahakarya Laghubitta Bittiya Sanstha Limited</t>
+          <t>Asha Laghubitta Bittiya Sanstha Ltd</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1660</v>
+        <v>1613</v>
       </c>
       <c r="D211" t="n">
-        <v>4.34</v>
+        <v>1.77</v>
       </c>
       <c r="E211" t="n">
-        <v>875</v>
+        <v>5022</v>
       </c>
       <c r="F211" t="n">
-        <v>1430965.6</v>
+        <v>8106440.3</v>
       </c>
       <c r="G211" t="n">
-        <v>1622.8</v>
+        <v>1616</v>
       </c>
       <c r="H211" t="n">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="I211" t="n">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="J211" t="n">
-        <v>1591</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Kisan Lagubitta Bittiya Sanstha Limited</t>
+          <t>Unnati Sahakarya Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1684.9</v>
+        <v>1660</v>
       </c>
       <c r="D212" t="n">
-        <v>2.98</v>
+        <v>4.34</v>
       </c>
       <c r="E212" t="n">
-        <v>2094</v>
+        <v>875</v>
       </c>
       <c r="F212" t="n">
-        <v>3541632.2</v>
+        <v>1430965.6</v>
       </c>
       <c r="G212" t="n">
-        <v>1668.8</v>
+        <v>1622.8</v>
       </c>
       <c r="H212" t="n">
-        <v>1705</v>
+        <v>1660</v>
       </c>
       <c r="I212" t="n">
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="J212" t="n">
-        <v>1636.1</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Nepal Life Insurance Co. Ltd.</t>
+          <t>Kisan Lagubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1713</v>
+        <v>1684.9</v>
       </c>
       <c r="D213" t="n">
-        <v>3.69</v>
+        <v>2.98</v>
       </c>
       <c r="E213" t="n">
-        <v>67766</v>
+        <v>2094</v>
       </c>
       <c r="F213" t="n">
-        <v>115275290</v>
+        <v>3541632.2</v>
       </c>
       <c r="G213" t="n">
-        <v>1685</v>
+        <v>1668.8</v>
       </c>
       <c r="H213" t="n">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="I213" t="n">
-        <v>1685</v>
+        <v>1668</v>
       </c>
       <c r="J213" t="n">
-        <v>1652</v>
+        <v>1636.1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mithila LaghuBitta Bittiya Sanstha Limited</t>
+          <t>Nepal Life Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1773.9</v>
+        <v>1713</v>
       </c>
       <c r="D214" t="n">
-        <v>4.22</v>
+        <v>3.69</v>
       </c>
       <c r="E214" t="n">
-        <v>721</v>
+        <v>67766</v>
       </c>
       <c r="F214" t="n">
-        <v>1259588.5</v>
+        <v>115275290</v>
       </c>
       <c r="G214" t="n">
-        <v>1736</v>
+        <v>1685</v>
       </c>
       <c r="H214" t="n">
-        <v>1775</v>
+        <v>1718</v>
       </c>
       <c r="I214" t="n">
-        <v>1730</v>
+        <v>1685</v>
       </c>
       <c r="J214" t="n">
-        <v>1702.1</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Global IME Laghubitta Bittiya Sanstha Ltd.</t>
+          <t>Mithila LaghuBitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1784</v>
+        <v>1773.9</v>
       </c>
       <c r="D215" t="n">
-        <v>2.53</v>
+        <v>4.22</v>
       </c>
       <c r="E215" t="n">
-        <v>1541</v>
+        <v>721</v>
       </c>
       <c r="F215" t="n">
-        <v>2741564.5</v>
+        <v>1259588.5</v>
       </c>
       <c r="G215" t="n">
-        <v>1774</v>
+        <v>1736</v>
       </c>
       <c r="H215" t="n">
-        <v>1799.9</v>
+        <v>1775</v>
       </c>
       <c r="I215" t="n">
-        <v>1760.1</v>
+        <v>1730</v>
       </c>
       <c r="J215" t="n">
-        <v>1740</v>
+        <v>1702.1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Support Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Global IME Laghubitta Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1936</v>
+        <v>1784</v>
       </c>
       <c r="D216" t="n">
-        <v>1.31</v>
+        <v>2.53</v>
       </c>
       <c r="E216" t="n">
-        <v>694</v>
+        <v>1541</v>
       </c>
       <c r="F216" t="n">
-        <v>1326462</v>
+        <v>2741564.5</v>
       </c>
       <c r="G216" t="n">
-        <v>1949</v>
+        <v>1774</v>
       </c>
       <c r="H216" t="n">
-        <v>1949.2</v>
+        <v>1799.9</v>
       </c>
       <c r="I216" t="n">
-        <v>1900</v>
+        <v>1760.1</v>
       </c>
       <c r="J216" t="n">
-        <v>1911</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Swabhimaan Laghubitta Bittiya Sanstha Limited</t>
+          <t>Support Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1965</v>
+        <v>1936</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2</v>
+        <v>1.31</v>
       </c>
       <c r="E217" t="n">
-        <v>781</v>
+        <v>694</v>
       </c>
       <c r="F217" t="n">
-        <v>1524400.7</v>
+        <v>1326462</v>
       </c>
       <c r="G217" t="n">
-        <v>2000.2</v>
+        <v>1949</v>
       </c>
       <c r="H217" t="n">
-        <v>2040.2</v>
+        <v>1949.2</v>
       </c>
       <c r="I217" t="n">
-        <v>1921.8</v>
+        <v>1900</v>
       </c>
       <c r="J217" t="n">
-        <v>1961</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Shikhar Insurance Co. Ltd.</t>
+          <t>Swabhimaan Laghubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2042</v>
+        <v>1965</v>
       </c>
       <c r="D218" t="n">
-        <v>2.3</v>
+        <v>0.2</v>
       </c>
       <c r="E218" t="n">
-        <v>49964</v>
+        <v>781</v>
       </c>
       <c r="F218" t="n">
-        <v>102242594.3</v>
+        <v>1524400.7</v>
       </c>
       <c r="G218" t="n">
-        <v>2035.9</v>
+        <v>2000.2</v>
       </c>
       <c r="H218" t="n">
-        <v>2118</v>
+        <v>2040.2</v>
       </c>
       <c r="I218" t="n">
-        <v>2030</v>
+        <v>1921.8</v>
       </c>
       <c r="J218" t="n">
-        <v>1996</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Forward Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Shikhar Insurance Co. Ltd.</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2170</v>
+        <v>2042</v>
       </c>
       <c r="D219" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="E219" t="n">
-        <v>6770</v>
+        <v>49964</v>
       </c>
       <c r="F219" t="n">
-        <v>14724034.7</v>
+        <v>102242594.3</v>
       </c>
       <c r="G219" t="n">
-        <v>2158</v>
+        <v>2035.9</v>
       </c>
       <c r="H219" t="n">
-        <v>2240</v>
+        <v>2118</v>
       </c>
       <c r="I219" t="n">
-        <v>2158</v>
+        <v>2030</v>
       </c>
       <c r="J219" t="n">
-        <v>2116</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Life Insurance Co. Nepal</t>
+          <t>Forward Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2355</v>
+        <v>2170</v>
       </c>
       <c r="D220" t="n">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="E220" t="n">
-        <v>14468</v>
+        <v>6770</v>
       </c>
       <c r="F220" t="n">
-        <v>34255082.4</v>
+        <v>14724034.7</v>
       </c>
       <c r="G220" t="n">
-        <v>2336</v>
+        <v>2158</v>
       </c>
       <c r="H220" t="n">
-        <v>2397</v>
+        <v>2240</v>
       </c>
       <c r="I220" t="n">
-        <v>2336</v>
+        <v>2158</v>
       </c>
       <c r="J220" t="n">
-        <v>2291</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Janautthan Samudayic Laghubitta Bikas Bank Ltd.</t>
+          <t>Life Insurance Co. Nepal</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2500</v>
+        <v>2355</v>
       </c>
       <c r="D221" t="n">
-        <v>0.41</v>
+        <v>2.79</v>
       </c>
       <c r="E221" t="n">
-        <v>1785</v>
+        <v>14468</v>
       </c>
       <c r="F221" t="n">
-        <v>4490632</v>
+        <v>34255082.4</v>
       </c>
       <c r="G221" t="n">
-        <v>2539.6</v>
+        <v>2336</v>
       </c>
       <c r="H221" t="n">
-        <v>2545</v>
+        <v>2397</v>
       </c>
       <c r="I221" t="n">
-        <v>2490</v>
+        <v>2336</v>
       </c>
       <c r="J221" t="n">
-        <v>2489.9</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>National Microfinance Bittiya Sanstha Ltd.</t>
+          <t>Janautthan Samudayic Laghubitta Bikas Bank Ltd.</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2727.9</v>
+        <v>2500</v>
       </c>
       <c r="D222" t="n">
-        <v>1.03</v>
+        <v>0.41</v>
       </c>
       <c r="E222" t="n">
-        <v>4953</v>
+        <v>1785</v>
       </c>
       <c r="F222" t="n">
-        <v>13524398.2</v>
+        <v>4490632</v>
       </c>
       <c r="G222" t="n">
-        <v>2754</v>
+        <v>2539.6</v>
       </c>
       <c r="H222" t="n">
-        <v>2800</v>
+        <v>2545</v>
       </c>
       <c r="I222" t="n">
-        <v>2700</v>
+        <v>2490</v>
       </c>
       <c r="J222" t="n">
-        <v>2700</v>
+        <v>2489.9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Citizen Investment Trust</t>
+          <t>National Microfinance Bittiya Sanstha Ltd.</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3439</v>
+        <v>2727.9</v>
       </c>
       <c r="D223" t="n">
-        <v>3.87</v>
+        <v>1.03</v>
       </c>
       <c r="E223" t="n">
-        <v>12223</v>
+        <v>4953</v>
       </c>
       <c r="F223" t="n">
-        <v>41763602.9</v>
+        <v>13524398.2</v>
       </c>
       <c r="G223" t="n">
-        <v>3377</v>
+        <v>2754</v>
       </c>
       <c r="H223" t="n">
-        <v>3451</v>
+        <v>2800</v>
       </c>
       <c r="I223" t="n">
-        <v>3377</v>
+        <v>2700</v>
       </c>
       <c r="J223" t="n">
-        <v>3310.8</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Mahila Lagubitta Bittiya Sanstha Limited</t>
+          <t>Citizen Investment Trust</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3998</v>
+        <v>3439</v>
       </c>
       <c r="D224" t="n">
-        <v>6.9</v>
+        <v>3.87</v>
       </c>
       <c r="E224" t="n">
-        <v>5159</v>
+        <v>12223</v>
       </c>
       <c r="F224" t="n">
-        <v>20326131.6</v>
+        <v>41763602.9</v>
       </c>
       <c r="G224" t="n">
-        <v>3814.8</v>
+        <v>3377</v>
       </c>
       <c r="H224" t="n">
-        <v>4046</v>
+        <v>3451</v>
       </c>
       <c r="I224" t="n">
-        <v>3814.8</v>
+        <v>3377</v>
       </c>
       <c r="J224" t="n">
-        <v>3740</v>
+        <v>3310.8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Jeevan Bikas laghubitta bittya sanstha ltd</t>
+          <t>Mahila Lagubitta Bittiya Sanstha Limited</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>4540</v>
+        <v>3998</v>
       </c>
       <c r="D225" t="n">
-        <v>2.65</v>
+        <v>6.9</v>
       </c>
       <c r="E225" t="n">
-        <v>9883</v>
+        <v>5159</v>
       </c>
       <c r="F225" t="n">
-        <v>44820449.9</v>
+        <v>20326131.6</v>
       </c>
       <c r="G225" t="n">
-        <v>4511.4</v>
+        <v>3814.8</v>
       </c>
       <c r="H225" t="n">
-        <v>4601</v>
+        <v>4046</v>
       </c>
       <c r="I225" t="n">
-        <v>4471</v>
+        <v>3814.8</v>
       </c>
       <c r="J225" t="n">
-        <v>4423</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Himalayan Distillery Limited</t>
+          <t>Jeevan Bikas laghubitta bittya sanstha ltd</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4799</v>
+        <v>4540</v>
       </c>
       <c r="D226" t="n">
-        <v>4.17</v>
+        <v>2.65</v>
       </c>
       <c r="E226" t="n">
-        <v>19619</v>
+        <v>9883</v>
       </c>
       <c r="F226" t="n">
-        <v>93826517.7</v>
+        <v>44820449.9</v>
       </c>
       <c r="G226" t="n">
-        <v>4699</v>
+        <v>4511.4</v>
       </c>
       <c r="H226" t="n">
-        <v>4950</v>
+        <v>4601</v>
       </c>
       <c r="I226" t="n">
-        <v>4699</v>
+        <v>4471</v>
       </c>
       <c r="J226" t="n">
-        <v>4607</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Bishal Bazar Company Limited</t>
+          <t>Himalayan Distillery Limited</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>5198</v>
+        <v>4799</v>
       </c>
       <c r="D227" t="n">
-        <v>2.93</v>
+        <v>4.17</v>
       </c>
       <c r="E227" t="n">
-        <v>913</v>
+        <v>19619</v>
       </c>
       <c r="F227" t="n">
-        <v>4735175</v>
+        <v>93826517.7</v>
       </c>
       <c r="G227" t="n">
-        <v>5151</v>
+        <v>4699</v>
       </c>
       <c r="H227" t="n">
-        <v>5250</v>
+        <v>4950</v>
       </c>
       <c r="I227" t="n">
-        <v>5055</v>
+        <v>4699</v>
       </c>
       <c r="J227" t="n">
-        <v>5050</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Salt Trading Corporation</t>
+          <t>Bishal Bazar Company Limited</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6699</v>
+        <v>5198</v>
       </c>
       <c r="D228" t="n">
-        <v>5.61</v>
+        <v>2.93</v>
       </c>
       <c r="E228" t="n">
-        <v>3044</v>
+        <v>913</v>
       </c>
       <c r="F228" t="n">
-        <v>20022289</v>
+        <v>4735175</v>
       </c>
       <c r="G228" t="n">
-        <v>6469</v>
+        <v>5151</v>
       </c>
       <c r="H228" t="n">
-        <v>6699</v>
+        <v>5250</v>
       </c>
       <c r="I228" t="n">
-        <v>6465</v>
+        <v>5055</v>
       </c>
       <c r="J228" t="n">
-        <v>6343</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bottlers Nepal (Terai) Limited</t>
+          <t>Salt Trading Corporation</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>14798.9</v>
+        <v>6699</v>
       </c>
       <c r="D229" t="n">
-        <v>3.49</v>
+        <v>5.61</v>
       </c>
       <c r="E229" t="n">
-        <v>570</v>
+        <v>3044</v>
       </c>
       <c r="F229" t="n">
-        <v>8434012.199999999</v>
+        <v>20022289</v>
       </c>
       <c r="G229" t="n">
-        <v>14586</v>
+        <v>6469</v>
       </c>
       <c r="H229" t="n">
-        <v>14877.7</v>
+        <v>6699</v>
       </c>
       <c r="I229" t="n">
-        <v>14585</v>
+        <v>6465</v>
       </c>
       <c r="J229" t="n">
-        <v>14300</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Rastriya Beema Company Limited Promoter Share</t>
+          <t>Bottlers Nepal (Terai) Limited</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>16387.8</v>
+        <v>14798.9</v>
       </c>
       <c r="D230" t="n">
-        <v>5.24</v>
+        <v>3.49</v>
       </c>
       <c r="E230" t="n">
-        <v>70</v>
+        <v>570</v>
       </c>
       <c r="F230" t="n">
-        <v>1134091</v>
+        <v>8434012.199999999</v>
       </c>
       <c r="G230" t="n">
-        <v>15883.4</v>
+        <v>14586</v>
       </c>
       <c r="H230" t="n">
-        <v>16387.8</v>
+        <v>14877.7</v>
       </c>
       <c r="I230" t="n">
-        <v>15883.4</v>
+        <v>14585</v>
       </c>
       <c r="J230" t="n">
-        <v>15572</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Rastriya Beema Company Limited</t>
+          <t>Rastriya Beema Company Limited Promoter Share</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>18300</v>
+        <v>16387.8</v>
       </c>
       <c r="D231" t="n">
-        <v>4.78</v>
+        <v>5.24</v>
       </c>
       <c r="E231" t="n">
-        <v>483</v>
+        <v>70</v>
       </c>
       <c r="F231" t="n">
-        <v>8817831</v>
+        <v>1134091</v>
       </c>
       <c r="G231" t="n">
-        <v>17814.3</v>
+        <v>15883.4</v>
       </c>
       <c r="H231" t="n">
-        <v>18800</v>
+        <v>16387.8</v>
       </c>
       <c r="I231" t="n">
-        <v>17814.3</v>
+        <v>15883.4</v>
       </c>
       <c r="J231" t="n">
-        <v>17465</v>
+        <v>15572</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>Rastriya Beema Company Limited</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>18300</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E232" t="n">
+        <v>483</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8817831</v>
+      </c>
+      <c r="G232" t="n">
+        <v>17814.3</v>
+      </c>
+      <c r="H232" t="n">
+        <v>18800</v>
+      </c>
+      <c r="I232" t="n">
+        <v>17814.3</v>
+      </c>
+      <c r="J232" t="n">
+        <v>17465</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>Unilever Nepal Limited</t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="C233" t="n">
         <v>19050</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D233" t="n">
         <v>0.26</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E233" t="n">
         <v>60</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F233" t="n">
         <v>1137520</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G233" t="n">
         <v>18702</v>
       </c>
-      <c r="H232" t="n">
+      <c r="H233" t="n">
         <v>19050</v>
       </c>
-      <c r="I232" t="n">
+      <c r="I233" t="n">
         <v>18702</v>
       </c>
-      <c r="J232" t="n">
+      <c r="J233" t="n">
         <v>19000</v>
       </c>
     </row>
